--- a/deuChatbot/research_result/version_1(2000_100).xlsx
+++ b/deuChatbot/research_result/version_1(2000_100).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13612,6 +13612,7173 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기시험의 주요 정보들을 포함하고 있지만, 배점에 대한 정보가 잘못 기재되어 있습니다. 예를 들어, 시각디자인의 배점이 490점으로 잘못 기재되었고, 산업디자인의 배점도 140점으로 잘못 기재되었습니다. 원본 텍스트에서는 각 종목의 배점이 명확히 제시되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 배점과 관련된 정보에서 일관성이 결여되어 있습니다. 또한, 공예디자인에 대한 정보가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 정보를 잘 다루고 있으며, 원본 텍스트의 주요 주제와 관련이 깊습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 구조가 다소 복잡하여 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 배점 정보의 불일치로 인해 전체적인 일관성이 약간 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보 중 일부는 정확하지만, 배점과 관련된 정보에서 오류가 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 배점 정보의 오류로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 정보의 오류로 인해 완전한 적합성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.8443420703595536</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 가지 종목 중 하나를 선택하여 응시하게 됩니다. 각 종목별로 배점이 다르며, 전체 실기시험 점수는 700점으로 구성됩니다.
+### 디자인조형학과 실기종목별 정보
+#### 1. 시각디자인
+- **배점**: 490점 (70%)
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A와 주제B에서 각각 하나를 선택하여 연결된 주제로 작업합니다. 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+- **화지크기**: 켄트지 3절
+- **시간**: 5시간
+#### 2. 산업디자인
+- **배점**: 140점 (20%)
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A와 주제B에서 각각 하나를 선택하여 연결된 주제로 작업합니다. 예시: 콜라병과 계절 (주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼 / 주제B: 바이러스, 자유, 여행, 계절, 꿈)
+- **화지크기**: 켄트지 2절
+- **시간**: 5시간
+#### 3. 공예디자인
+- **배점**: 70점 (10%)
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A와 주제B에서 각각 하나를 선택하여 연결된 주제로 작업합니다. 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+- **화지크기**: 켄트지 3절
+- **시간**: 5시간
+### 준비사항 및 유의사항
+1. **준비물**: 모든 종목에서 볼펜, 연필, 색연필, 수채물감 등이 필요합니다.
+2. **화지크기**: 켄트지 3절을 사용해야 합니다.
+3. **시간**: 각 종목 모두 5시간 동안 작업하게 됩니다.
+### 기타 유의사항
+- **주제 선정**: 당일 실시되는 주제 추첨에 따라 선택합니다.
+- **화질 제한**: 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 합니다. 제공된 사물은 모두 1회 이상 표현해야 하며, 색상 변경도 금지됩니다.
+이러한 정보를 바탕으로 디자인조형학과의 실기시험을 준비할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 디자인조형학과의 실기 종목을 '시각디자인', '산업디자인', '공예디자인'으로 잘못 기술하고 있습니다. 원본 텍스트에서는 '기초디자인'과 '사고의 전환'이 실기 종목으로 명시되어 있습니다. 또한, 실기 주제와 관련된 세부 사항이 누락되어 있습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 실기 종목과 주제, 준비물에 대한 정보가 서로 다르며, 원본의 조건과 규칙도 반영되지 않았습니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 디자인조형학과의 실기 종목에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용과 세부 사항을 충분히 반영하지 못하고 있습니다. 따라서 관련성은 있지만, 부족한 부분이 많습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 원본 텍스트와 다르게 해석될 수 있어 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 전반적으로 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨집니다. 실기 종목과 주제의 연결이 명확하지 않습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 실기 종목, 주제, 준비물 등에서 많은 오류가 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 디자인조형학과와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와 맥락을 충분히 반영하지 못하고 있습니다. 일부 내용은 적절하지만, 전반적으로는 부적절한 부분이 많습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.8311330059658627</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 다음과 같습니다:
+- 시각디자인
+- 산업디자인 
+- 공예디자인
+각 종목별로 준비물은 볼펜, 연필, 색연필, 수채물감 등이 필요합니다.
+실기주제는 당일 추첨을 통해 주어지며, 예시로는 다음과 같습니다:
+- 시각디자인: 잠자리와 저울, 무궁화와 피망 등의 연결된 주제
+- 산업디자인: 콜라병과 계절, 바이러스와 자유 등
+화지크기는 켄트지 3절입니다.
+시간은 각 종목 모두 5시간 동안 진행됩니다.
+참고로, 제공된 사물과 이미지는 표현하지 않아야 하며, 색상 변경도 금지되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 대회 목록을 정확하게 포함하고 있으며, 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 모든 주요 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.9580687171123479</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다:
+1. 배드민턴(남)
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)
+   - 춘계한국고등학교축구연맹전
+   - 추계한국고등학교축구연맹전
+   - 대한축구협회장배전국고등학교축구대회
+   - 문화체육관광부장관기전국고등학교축구대회
+   - 문화체육관광부장관배전국고등학교축구대회
+   - 백운기전국고등학교축구대회
+   - 전국고등축구리그(권역별고교축구리그)
+   - 전국고등축구리그왕중왕전
+   - 무학기전국고등학교축구대회
+   - 청룡기전국고등학교축구대회
+   - 백록기전국고등학교축구대회
+   - 금강대기전국고등학교축구대회
+   - 대통령금배전국고등학교축구대회
+   - 금석배전국고등학생축구대회
+   - 부산MBC전국고등학생축구대회
+   - K리그 U18 챔피언십
+   - K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제와 관련된 모든 세부 사항이 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 핵심 포인트를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.817195728295263</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용될 수 있는 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+두 가지 주제를 당일에 추첨하여 연결된 주제로 사용하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 나군 실기/실적 전형에 대한 추가 정보는 원문에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 나군 실기/실적 전형에 대한 정보는 원문에 명시되어 있지 않으므로 일관성이 떨어집니다. 원문과의 일관성을 유지하기 위해서는 이러한 추가 정보가 필요하지 않았습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊습니다. 출결 점수의 반영 여부에 대한 질문에 대해 적절한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 문장 길이가 길어질 수 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 나군 실기/실적 전형에 대한 정보가 추가되면서 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실을 정확하게 전달하고 있지만, 나군 실기/실적 전형에 대한 정보는 원문에 포함되어 있지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 원문과의 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있지만, 나군 실기/실적 전형에 대한 정보는 원문과의 맥락에서 벗어나 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.6619731424016769</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서는 출결 점수가 직접적으로 반영되지 않습니다. 하지만 나군 실기/실적(경기실적우수자전형)의 경우, 출결 상황이 다음과 같이 반영됩니다:
+- 결석일수 / 반영점수
+  - 0~2일 : 120점
+  - 3~6일 : 90점
+  - 7~12일 : 60점
+  - 13~20일 : 30점
+  - 21일이상 : 0점
+따라서, 출결 점수는 특정 전형(나군 실기/실적)에서만 반영되며, 일반적인 학생부교과 전형에서는 출결 점수가 반영되지 않습니다.
+만약 다른 전형에서도 출결이 중요한 요소로 작용할 수 있으므로, 지원자들은 출결을 포함한 전체 학업 성적을 신경 써야 합니다.</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원인 17명을 정확하게 반영하고 있으며, 추가적인 참조 정보도 관련 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으나, 약간의 어색함이 느껴질 수 있습니다. 예를 들어, "참조 정보" 부분이 다소 불필요하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으나, "참조 정보" 부분이 추가되어 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 응답이 우수하게 수행되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, "참조 정보" 부분이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.7823369580880247</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 
+참조 정보:
+- 표 제목 : 가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원
+- 해당 내용 : 인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 원문과 일치하는 정보를 제공합니다. 그러나 "28 이내"라는 표현은 원문에서 명시된 "총 28명의 신입생"과는 약간의 차이가 있어 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "28 이내"라는 표현이 원문과의 일관성을 떨어뜨립니다. 원문은 명확하게 28명을 선발한다고 하였으나, 생성된 응답은 이를 다소 애매하게 표현하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 언급된 모집 인원과 관련된 정보를 직접적으로 다루고 있으며, 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, "28 이내"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "28 이내"라는 표현이 전체적인 일관성을 약간 해칠 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 모집 인원에 대한 정확한 정보를 제공하고 있지만, "28 이내"라는 표현이 원문과의 정확성을 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일부 표현에서의 모호함이 점수를 낮추는 요소입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치도가 높지만, "28 이내"라는 표현이 원문의 의미를 완전히 전달하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, "28 이내"라는 표현이 다소 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.6227787513136941</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 이내 / 
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 22명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.7653329231261959</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>22명입니다.
+의료보건생활대학 간호학과는 나군 일반학생 전형으로 22명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 등급과 점수가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.9062283309843019</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급별로 다음과 같은 점수가 부여됩니다:
+- 1등급 : 139점
+- 2등급 : 131점
+- 3등급 : 123점
+- 4등급 : 115점
+- 5등급 : 107점
+- 6등급 : 99점
+- 7등급 : 91점
+- 8등급 : 83점
+- 9등급 : 75점
+이 점수들은 영어 등급별로 대응되는 점수입니다.</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 예술고 학생의 지원 자격에 대한 정보가 일치합니다. 추가적인 설명도 원본의 내용을 잘 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 예술고 학생의 지원 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 명확한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.7210699670265847</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 일반적으로 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 
+표 "나군 학생부교과(농어촌학생전형) - 정원외 모집단위 및 모집인원"에서 볼 수 있듯이, 농어촌학생전형의 지원 자격 조건 중 하나는 "농어촌(읍·면)지역 소재 학교에서 전 교육과정을 이수한 자"입니다. 
+또한 "고교유형별 지원자격" 표에서도 확인할 수 있듯이, 예술고 출신자는 농어촌학생전형의 지원 자격에 포함되어 있지 않습니다.
+따라서 예술고 학생은 일반적으로 나군 학생부교과 농어촌학생전형으로 지원하기 어렵습니다. 다른 전형을 고려해보는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "여자 제자리 멀리뛰기 4등급의 기록은 221cm 이상"이라고 언급하고 있지만, 원본 텍스트에서는 4등급의 기록이 "218~221 cm"로 명시되어 있습니다. 따라서 이 부분에서 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공합니다. 특히 기록에 대한 설명이 원본과 상충하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 일부 내용이 부적절하게 연결되어 있습니다. 그러나 전체적으로 주제와 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 내용이 잘못되어 있어 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조는 비교적 일관되지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르며, 특히 기록에 대한 정보가 잘못되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.8487604522729112</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 221cm 이상이며, 이에 대한 배점은 275점입니다.
+참조되는 표는 다음과 같습니다:
+[표 내용]
+```
+1 / { 280이상 /  230 이상 /  350 / } / { 14.39이하 /  15.29이하 /  350 / } /
+2 / { 276~279 /  226~229 /  325 / } / { 14.40~14.59 /  15.30~15.49 /  325 / } /
+3 / { 272～275 /  222~225 /  300 / } / { 14.60~14.79 /  15.50~15.69 /  300 / } /
+4 / { 268～271 /  218~221 /  275 / } / { 14.80~14.99 /  15.70~15.89 /  275 / } /
+5 / { 264～267 /  214~217 /  250 / } / { 15.00∼15.19 /  15.90~16.09 /  250 / } /
+6 / { 260～263 /  210~213 /  225 / } / { 15.20∼15.39 /  16.10~16.29 /  225 / } /
+7 / { 256～259 /  206~209 /  200 / } / { 15.40∼15.59 /  16.30~16.49 /  200 / } /
+8 / { 252～255 /  202~205 /  175 / } / { 15.60∼15.79 /  16.50~16.69 /  175 / } /
+9 / { 248～251 /  198~201 /  150 / } / { 15.80∼15.99 /  16.70~16.89 /  150 / } /
+10 / { 244～247 /  194~197 /  125 / } / { 16.00∼16.19 /  16.90~17.09 /  125 / } /
+11 / { 240～243 /  190~193 /  100 / } / { 16.20∼16.39 /  17.10~17.29 /  100 / } /
+12 / { 236~239 /  186~189 /  75 / } / { 16.40∼16.59 /  17.30~17.49 /  75 / } /
+13 / { 232~235 /  182~185 /  50 / } / { 16.60∼16.79 /  17.50~17.69 /  50 / } /
+14 / { 228~231 /  178~181 /  25 / } / { 16.80∼16.99 /  17.70~17.89 /  25 / } /
+15 / { 227이하 /  177이하 /  0 / } / { 17.00이상 /  17.90이상 /  0 / } /
+```
+따라서, 여자 제자리 멀리뛰기 4등급의 기록은 221cm 이상이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있습니다. 그러나 추가된 정보인 "학생부교과: 18%", "서류(경기실적): 70%"는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 추가된 전형요소 반영 비율에 대한 정보는 원본 텍스트와 일치하지 않거나 관련이 없는 정보로 보입니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다. 추가된 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 반영 비율에 대한 정보는 정확하지만, 추가된 전형요소 반영 비율에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성 점수는 약간 낮아집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 일부 정보의 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본 텍스트와의 관련성이 떨어져 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 추가된 정보가 혼란을 줄 수 있는 요소가 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.7314184815530247</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과의 출결 반영 비율은 12%입니다.
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 표에서 확인할 수 있습니다. 해당 표에 따르면 경기지도학과의 전형요소 반영 비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12% 
+- 서류(경기실적): 70%
+따라서 경기지도학과에서 출결은 총 모집인원의 12%에 해당하는 비율로 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 학과 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 보완하는 형태로 제공되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 추가 정보도 포함되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름이 잘 유지되고 있으며, 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.8757503784826017</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다. 해당 표의 내용 중 물리치료학과 관련 부분을 보면:
+공과대학 / 공학 / 물리치료학과 / 4 / 
+따라서 물리치료학과는 2024학년도 가군에서 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 디자인조형학과의 실기고사 일정인 2024년 1월 17일(수)을 정확하게 반영하고 있습니다. 그러나 추가된 정보(레저스포츠학과와 태권도학과의 실기고사 일정)는 원본 텍스트에 포함되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일정과 일치하지만, 추가된 정보가 원본 텍스트와 일치하지 않기 때문에 일관성이 떨어집니다. 원본 텍스트에 없는 내용을 포함하여 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정에 대한 정보를 명확하게 제공합니다. 추가된 정보도 관련성이 있어 전반적으로 적절합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본 텍스트와의 연결이 약해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 주어진 사실을 잘 반영하고 있지만, 원본 텍스트에 없는 추가 정보를 포함하고 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 관련성, 유창성, 일관성에서 좋은 점수를 받습니다. 그러나 일부 정보의 추가로 인해 약간의 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본과의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.4792914444937244</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 1월 17일(수)에 진행됩니다.
+관련 정보는 아래와 같습니다:
+- **일정**: 2024. 01. 17.(수)
+- **내용**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 및 체육학과의 실기고사
+참고로, 이외에도 레저스포츠학과와 태권도학과의 실기고사는 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 원문 내용을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 따라서 사실성 점수는 5입니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 일관되며, 수능 최저 기준이 없다는 내용을 일관되게 전달하고 있습니다. 따라서 일관성 점수는 5입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 정보와 직접적으로 관련이 있으며, 응용화학과의 수능 최저 기준에 대한 정보를 제공하고 있습니다. 따라서 관련성 점수는 5입니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 5입니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 따라서 일관성 점수는 5입니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하며, 정확한 내용을 전달하고 있습니다. 따라서 정확성 점수는 5입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다. 따라서 다차원 품질 점수는 5입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지며, 적절한 맥락에서 정보를 전달하고 있습니다. 따라서 의미 적합성 점수는 5입니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다. 따라서 이해 가능성 점수는 5입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4648577472153626</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준 정보는 제공된 데이터에서 확인할 수 없습니다. 
+다만, 제공된 표 중에서는 "응용화학과"와 관련된 정보가 있습니다:
+``` 
+응용화학과 (가)군 / 2024년 / 수능최저기준 없음
+```
+이는 응용화학과의 경우 2024년에는 수능 최저기준이 설정되어 있지 않은 것으로 보입니다.
+하지만, 정확한 정보를 얻으시려면 동의대학교 입학처 웹사이트나 관련 공지사항을 확인하시거나 직접 문의하시는 것이 가장 확실합니다. 제공된 데이터에서 명확히 확인할 수 없는 사항은 대학 측으로부터 최신 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 신설된 학과 목록과 각 학과의 이름이 일치합니다. 추가된 "(신설)"이라는 설명도 사실을 강조하는 데 도움이 됩니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 신설된 학과의 목록이 원본과 동일하게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 신설된 학과에 대한 정보를 직접적으로 다루고 있습니다. 모든 정보가 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 전반적으로 매우 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 나열이 명확하게 이루어져 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 정보의 정확성에 문제가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.7843397156421182</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과와 전공은 다음과 같습니다:
+1. 심리학과 (신설)
+2. 스마트항만물류학과 (신설) 
+3. 창업투자경영학과 (신설)
+4. 라이프융합학부 (신설)(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과 (신설)
+위와 같이 2024학년도에 동의대학교에서는 총 5개의 신설 학과/전공을 포함하여 변화가 있었습니다.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 서류와 면접의 비율을 올바르게 제시하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.7309127789878467</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 평가 70%와 면접 평가 30%입니다.
+이 정보는 다음과 같은 표에서 확인할 수 있습니다:
+[표 제목 : 나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 전형요소 반영비율]
+| 전형명               | 전형요소 반영비율{ 서류 / 면접 } |
+|----------------------|----------------------------------|
+| 학생부종합(평생학습자전형) | { 70% / 30% / }                  |
+| 학생부종합(성인학습자(정원내·외)전형) | { 70% / 30% / }                  |
+| 학생부종합(재직자전형)     | { 70% / 30% / }                  |
+따라서, 나군의 학생부종합(성인학습자전형)에서는 서류 평가에서 70%를, 면접 평가에서 30%를 반영합니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 수능 가산점 적용 대상과 조건, 가산점 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 모순되지 않고 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 수능 가산점에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽고 일관성이 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.7942751428290801</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 의료·보건·생활, 공과, ICT융합공과대학 모집단위에서 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10% 가산점을 부여합니다.
+관련 정보는 다음과 같습니다:
+- **가산점 적용 대상**: 의료·보건·생활, 공과, ICT융합공과대학 모집단위
+- **조건**: 수학(미적분 또는 기하) 응시자
+- **가산점 내용**: 수학 취득 표준점수의 10%
+이 정보는 "가산점" 데이터에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 구체적인 비율을 제시하고 있지만, 원본 텍스트에서는 수능 성적을 100% 반영한다고 명시하고 있습니다. 그러나 생성된 응답은 각 과목의 비율을 나열하고 있어 원본의 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본에서는 수능 성적을 100% 반영한다고 했지만, 생성된 응답은 각 과목의 비율을 제시하여 모순된 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 "100% 반영"이라는 점을 간과하고 있습니다. 따라서 관련성은 있지만, 핵심적인 부분이 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본의 내용을 왜곡하고 있어 전반적인 흐름은 좋지만 내용의 정확성에 문제가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 과목의 비율을 나열하는 방식이 일관성을 유지하고 있습니다. 그러나 원본과의 불일치로 인해 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본에서는 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 각 과목의 비율을 제시하여 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 두드러지며, 전반적으로 낮은 품질을 보입니다. 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본의 의미와 맥락을 잘못 전달하고 있습니다. 수능 성적 반영 방법에 대한 구체적인 정보를 제공하지만, 원본의 핵심 메시지를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해에는 한계가 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.7150723337906865</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 수능 성적이 다음과 같이 반영됩니다:
+- 국어(화법과작문 또는 언어와매체) : 25%
+- 수학(확률과통계, 미적분, 기하 중 선택) : 25%
+- 영어 : 25%
+- 탐구 영역 (사회탐구 또는 과학탐구 또는 직업탐구 중 2개 과목 선택) : 각 25%
+특히, 한의예과의 경우 수학(미적분/기하) 응시자의 수학 취득 표준점수에 대해 10% 가산점을 부여합니다.
+이러한 반영방법은 모든 가군 모집단위에서 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사의 날짜를 정확하게 반영하고 있으며, 추가적인 정보(레저스포츠학과, 태권도학과의 실기고사 일정)도 포함되어 있습니다. 따라서 사실성 점수는 5입니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다. 추가된 정보도 원본의 내용을 보완하므로 일관성 점수는 5입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다. 따라서 관련성 점수는 5입니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 5입니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다. 따라서 일관성 점수는 5입니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 따라서 정확성 점수는 5입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다. 따라서 다차원 품질 점수는 5입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 추가된 정보도 의미적으로 적절합니다. 따라서 의미 적합성 점수는 5입니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 따라서 이해 가능성 점수는 5입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.7538701030051383</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 일정이 정해져 있습니다:
+- 레저스포츠학과, 태권도학과의 실기고사는 **2024. 01. 16.(화)**에 시행됩니다.
+참조하시려면 [이곳](https://ipsi.deu.ac.kr/main.do)을 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 학과들이 제외된다는 사실을 정확하게 반영하고 있습니다. 그러나 "실기/실적 위주 전형으로 분류되어 있습니다"라는 추가 정보는 원문에 명시되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "실기/실적 위주 전형으로 분류되어 있습니다"라는 문구는 원문에 없는 정보로, 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 직접적으로 관련이 있으며, 모든 관련 학과를 나열하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 중복 표현이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과가 제외된 이유를 설명하는 부분도 잘 연결되어 있습니다. 그러나 일부 문장이 다소 반복적입니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원문에서 제공된 정보와 대체로 일치하지만, 추가된 정보가 원문에 없기 때문에 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 맞지만, 추가된 정보가 원문에 없기 때문에 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 중복된 표현이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.7080692189176262</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 한의예과, 디자인조형학과, 체육학과, 경기지도학과는 실기/실적 위주 전형으로 분류되어 있습니다. 
+따라서, 일반학생전형인 나군 수능에서는 다음과 같은 모집단위가 제외됩니다:
+1. 한의예과
+2. 디자인조형학과 
+3. 체육학과
+4. 경기지도학과
+이들 학과는 실기/실적 위주 전형으로 분류되어 나군 수능(일반학생전형)에서 제외되었습니다.
+참고로, 이 외의 모집단위들은 일반적으로 나군 수능(일반학생전형)에 포함됩니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 주장을 반복하여 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제인 수능 최저기준의 적용 여부에 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 각 문장이 자연스럽게 이어져 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.850884507688234</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서 수능 최저기준은 적용되지 않습니다.
+참조할 수 있는 정보는 다음과 같습니다:
+- [전형요소 반영비율] 표에서 다군 수능(일반학생전형)의 수능최저기준 항목이 "수능최저기준 없음"으로 기재되어 있습니다.
+- 전체적으로 볼 때, 가군과 나군, 다군 모두 수능 위주 전형에서는 수능 최저기준이 적용되지 않는 것으로 보입니다.
+따라서 2024학년도 동의대학교 다군 전형에서 수능 최저기준은 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학과의 분리 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 학과 분리에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 분리 내용을 명확하게 전달하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.8367752816252821</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 여러 학과가 학부에서 학과로 분리되었습니다. 특히 다음과 같은 학과들이 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+이 외에도 다른 학과들도 분리되었으나 위와 같은 학과들이 주요한 변경 사항입니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 원서접수 마감일과 시간에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.9133881950342012</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수 마감일은 **2024년 1월 6일(토) 18시**까지입니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전형 요소 변화에 대한 일부 정보를 포함하고 있지만, 원본 텍스트의 세부 사항과 일치하지 않는 부분이 많습니다. 예를 들어, "학생부종합(평생학습자전형)"이라는 전형은 원본 텍스트에 명시되어 있지 않으며, "학생부종합 평가영역"에 대한 설명도 원본 텍스트와 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트에서 제공된 전형의 세부 사항과 비율이 다르게 설명되어 있으며, 일부 전형의 이름도 변경되어 있습니다. 이러한 불일치는 응답의 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 전형 요소 변화에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 특정 세부 사항을 놓치고 있습니다. 전반적으로 주제와 관련이 있지만, 일부 정보는 부정확하거나 불필요합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 흐름을 가지고 있지만, 원본 텍스트의 구조와 다르게 배열되어 있어 논리적인 연결이 약해 보입니다. 각 전형에 대한 설명이 명확하게 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 전형의 이름, 평가 영역, 반영 비율 등에서 정확성이 결여되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 이로 인해 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 원본 텍스트의 맥락과 다르게 해석된 부분이 있어 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 세부 사항이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.7952398479457811</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1. **학생부종합(평생학습자전형)**:
+   - 신설된 전형으로, 지원 자격이 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자입니다.
+2. **학생부종합(성인학습자(정원내)전형)**:
+   - 기존의 학생부종합(성인학습자전형)에서 정원 내로 변경되었습니다.
+   - 지원 자격이 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자입니다.
+3. **학생부종합 평가영역**:
+   - 인성, 학업역량, 전공적합성으로 변경되었습니다.
+   - 공동체역량, 학업역량, 전공적합성으로 변경되었습니다.
+4. **전형요소 반영비율**:
+   - 일부 전형에서 비율이 변경되었습니다.
+   - 예를 들어, 조기취업형 계약학과 전형에서는 서류(학생부) 60% + 면접 40%로 변경되었습니다.
+5. **수능성적 반영방법**:
+   - 일부 모집단위에서 수능 성적의 반영 방식이 변경되었습니다.
+   - 예를 들어, 한의예과에서는 탐구 영역의 변환 표준점수가 반영됩니다.
+6. **고교유형별 지원자격**:
+   - 일부 전형에서 고교 유형별 지원 자격이 변경되었습니다.
+   - 예를 들어, 재직자전형은 특성화고 교육과정 또는 1년 이상의 직업교육훈련 과정을 이수한 경우만 해당합니다.
+위와 같은 변화가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 명확하게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 실기 비중에 대한 정보가 일치합니다. 추가적인 세부사항도 원본의 내용을 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기 비중에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.7306297316916908</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적(일반학생전형)에서는 다음과 같이 전형요소 반영비율이 정해져 있습니다:
+- 레저스포츠학과, 태권도학과 모집단위에서:
+  - 수능 비중: 30%
+  - 실기 비중: 70%
+따라서 가군 실기/실적 전형에서 실기의 비중은 **70%**입니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공 목록도 일치합니다. 추가된 설명도 원본의 정보와 관련이 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않습니다. 모든 정보가 조화롭게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다. 모든 내용이 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄럽습니다. 읽기 쉽고 자연스럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 명확합니다. 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.83446270166178</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 '라이프융합학부'는 세부 전공으로 다음과 같이 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+따라서, 라이프융합학부는 이 3가지 세부 전공을 통해 다양한 삶의 질 향상과 관련된 분야를 다루게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 언급하고 있지만, 원본 텍스트에는 '체육학과'가 포함되어 있습니다. 따라서 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, '체육학과' 대신 '태권도학과'를 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있으나, 잘못된 학과명이 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, '태권도학과'라는 잘못된 정보가 포함되어 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 잘못된 정보로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '태권도학과'라는 잘못된 정보가 포함되어 있어 정확성이 낮습니다. 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 기록하고 있으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 잘못된 학과명이 포함되어 있어 의미 전달에 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.7363386806230448</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과는 해당 학과에 입학하기 위해 실기고사를 별도로 치러야 합니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 학과가 올바르게 나열되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 실기/실적 위주 전형에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.7900642452554818</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 시행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과
+이러한 학과들은 실기/실적 위주 전형으로 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "2024학년도 동의대학교 미래융합대학에서 신설되는"이라는 부분은 원문에 명시되어 있지 않으며, "미래융합대학"이라는 표현도 원문에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "미래융합대학"이라는 새로운 명칭이 추가되어 있어 일관성이 떨어집니다. 원문에서는 "라이프융합학부"에 대한 정보만 제공되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 전공 목록을 그대로 포함하고 있으며, 주제와 관련된 내용을 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 중국어 문장이 포함되어 있어 한국어 독자에게는 다소 혼란스러울 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전공 목록을 잘 나열하고 있으며, 전반적으로 논리적인 흐름을 유지하고 있습니다. 그러나 중국어 문장이 추가되어 있어 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공 목록은 정확하지만, "미래융합대학"이라는 표현이 원문에 없기 때문에 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답의 의미는 대체로 적절하지만, 중국어 문장이 포함되어 있어 한국어 문맥에서 다소 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 중국어 문장이 포함되어 있어 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.7983721333606422</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+这三个专业旨在培养与生活融合相关的创业、美容和生活方式管理等方面的人才。</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생들이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 농어촌학생전형에 대한 언급이 없고, 지원 가능 여부에 대한 구체적인 정보가 다소 모호하게 표현되어 있어 완전한 정확성에는 다소 부족함이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 농어촌학생전형에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 또한, 지원 가능 여부에 대한 구체적인 표가 제시되었으나, 원문에서 언급된 내용과의 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 매우 관련성이 높습니다. 특수목적고등학교 출신 학생들의 지원 가능성에 대한 정보를 제공하고 있어 주제에 잘 맞습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 표현이 다소 복잡하게 느껴질 수 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 표의 형식이 다소 복잡하여 전체적인 흐름이 약간 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 농어촌학생전형에 대한 정보가 누락되어 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 주제에 적합한 내용을 담고 있습니다. 다만, 일부 표현이 다소 복잡하여 의미 전달이 약간 어려울 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 표의 복잡성으로 인해 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.6636944176430164</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 일반학생전형에서 특수목적고등학교(과학고, 국제고, 외국어고, 예술고, 체육고) 학생들은 지원이 가능합니다. 
+참조할 수 있는 표는 다음과 같습니다:
+- **모집군 / 전형명 / 고교유형별 지원자격** 표에서:
+  - 가군 (수능 일반학생전형): [지원 가능 / 지원 가능 / { 지원 가능 / 지원 가능 / 지원 가능 / } / { 지원 가능 / 지원 가능 / } / 지원 가능 / { 지원 가능 / 지원 가능 / 지원 가능 / }]
+  - 나군 (수능 일반학생전형): [지원 가능 / 지원 가능 / { 지원 불가능 / 지원 불가능 / 지원 가능 / } / { 지원 가능 / 지원 가능 / } / 지원 가능 / { 지원 가능 / 지원 가능 / 지원 가능 / }]
+따라서, 특수목적고등학교 학생들은 가군과 나군의 수능 일반학생전형에서 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 주어진 소스 텍스트의 사실을 완전히 왜곡하고 있습니다. 소스 텍스트는 특정 학과가 가장 많이 모집된다고 명확히 언급하고 있지만, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 소스 텍스트와 상충되는 내용을 포함하고 있습니다. 소스 텍스트에서 명확히 언급된 내용을 부정하고, 정보가 없다고 주장하는 것은 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 소스 텍스트의 주제와 관련이 있지만, 주어진 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 소스 텍스트와의 불일치로 인해 일관된 흐름을 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 소스 텍스트의 사실을 왜곡하고 있으며, 정확성이 전혀 없습니다. 소스 텍스트의 내용을 반영하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 부적절한 부분이 있으며, 소스 텍스트의 맥락과 맞지 않는 주장을 하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장으로 구성되어 있지만, 내용의 부정확성으로 인해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.6348210298916123</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과에 대한 명확한 정보는 주어진 데이터에서 확인할 수 없습니다. 제공된 표들은 각 학과별 모집단위와 모집인원을 포함하고 있지만, 특정 학과가 가장 많이 모집되는지에 대해 직접적으로 언급되어 있지 않습니다.
+모집인원이 가장 많은 학과를 파악하려면, 전형별로 모집인원을 모두 더한 후 비교해야 합니다. 그러나 주어진 표는 나군의 일부 학과만 포함하고 있으므로, 전체적인 추정치를 얻기 위해서는 추가 정보가 필요합니다.
+추가적으로, 동의대학교의 공식 웹사이트나 입학처에서 가장 많은 모집인원을 가진 학과에 대한 최신 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 대한 지원 자격을 언급하고 있지만, 원문에서 명시된 '마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다'는 내용을 명확히 반영하지 못하고 있습니다. 또한, '특수교육 고등학교'라는 표현이 원문과 다르게 사용되어 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하는 정보를 제공하지만, '특수교육 고등학교'라는 표현이 원문에서의 '특수목적고등학교'와 다르기 때문에 일관성이 떨어집니다. 또한, 원문에서 언급된 특정 학교 유형에 대한 정보가 누락되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 대한 지원 자격에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원문에서 강조된 특정 학교 유형에 대한 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 원문과 다르게 사용되어 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 차이로 인해 완전한 일관성을 보장하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원문에서의 특정 조건이나 제한 사항을 충분히 반영하지 못하고 있습니다. 특히, '특수교육 고등학교'라는 표현이 원문과 다르게 사용되어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있습니다. 그러나 원문과의 차이로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, '특수교육 고등학교'라는 표현이 원문과 다르게 사용되어 의미의 일관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원문과의 차이로 인해 일부 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.4919097198618839</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>你在特殊教育高中就读，不符合동义大学学生部课程（农村学生选拔）的申请资格。根据提供的信息：
+- 农村学生选拔要求：
+  - 对于6年制课程：在农村（乡、镇）地区的中学和高中期间，本人及其父母均需居住在该地区。（即使学生与父母居住地不同也行）
+  - 对于12年制课程：无论父母的居住地如何，申请者本人必须在农村（乡、镇）地区的学校完成整个初高中教育并居住在那里。
+- 特殊教育高中毕业生不符合农村学生选拔的申请资格。
+因此，你不能以特殊教育高中的身份申请该大学的学生部课程（农村学生选拔）。你需要满足上述关于居住地和就读学校的条件。</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 없다는 점을 정확히 반영하고 있습니다. 그러나 "정확한 평균 성적이 없습니다"라는 표현은 다소 모호하게 느껴질 수 있으며, 원문에서 제공된 정보가 없다는 점을 강조하는 것이 더 적절할 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 정보를 전달하고 있습니다. 원문에서 언급된 정보가 없다는 점을 잘 반영하고 있으며, 추가적인 설명도 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 약간의 중복된 표현이 있어 더 간결하게 정리될 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보의 정확성을 잘 반영하고 있습니다. 다만, "정확한 평균 성적이 없습니다"라는 표현은 다소 주관적일 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 개선 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락을 유지하고 있습니다. 다만, 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.6971256092808468</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어공학부 합격자의 정확한 평균 성적이 없습니다. 
+현재 표에는 전반적인 수능 성적의 평균과 표준편차가 포함되어 있지만, 특정 학과별 또는 모집단위별 합격자들의 성적 정보는 제공되지 않았습니다.
+만약 소프트웨어공학부 합격자의 평균 성적을 알고 싶다면, 동의대학교 입학처 웹사이트나 관련 공지사항을 확인해 보시거나, 직접 연락하여 문의하시는 것이 가장 정확한 정보를 얻는 방법일 것입니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 성적 정보가 제공되지 않음을 정확하게 반영하고 있습니다. 그러나 "정확한 최초합격자 평균 성적 정보"라는 표현은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 평균 성적 정보가 없다는 점을 강조하고 있습니다. 다만, "정확한 최초합격자 평균 성적 정보"라는 표현이 원본의 내용과 약간의 차이를 보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 질문에 대한 적절한 대답을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 다만, 일부 문장이 더 매끄럽게 연결될 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 정보의 정확성도 높습니다. 그러나 "정확한 최초합격자 평균 성적 정보"라는 표현이 다소 애매할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 더 간결하게 표현될 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.6493648514198171</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 정확한 최초합격자 평균 성적 정보가 제공된 표에서 확인할 수 없습니다. 주어진 표는 전반적인 수능(일반학생전형) 최종등록자의 성적 통계를 보여주고 있으며, 소프트웨어공학부에 대한 특정한 데이터는 포함되어 있지 않습니다.
+만약 소프트웨어공학부의 최초합격자 평균 성적을 알고 싶다면, 동의대학교 입학처 웹사이트나 관련 공지사항을 확인해 보시거나, 직접 연락하여 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 일부 세부사항이 누락되거나 잘못된 정보가 포함되어 있습니다. 예를 들어, 최초 합격자 발표의 정확한 날짜와 시간은 언급되지 않았고, 충원 합격자 발표에 대한 정보도 불완전합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 전체적으로 일관성이 부족합니다. 특히, 최초 합격자 발표에 대한 구체적인 날짜와 시간이 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하고 있지만, 원본 텍스트의 모든 세부사항을 다루지 않아서 약간의 관련성이 떨어집니다. 그러나 주제와 관련된 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 어색하게 표현되어 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 일부 정보가 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 중요한 세부사항이 누락되어 있어 정확성이 떨어집니다. 특히, 최초 합격자 발표의 날짜와 시간이 명확히 언급되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 정보의 누락과 일관성 부족으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 세부사항이 누락되어 있어 완전한 적합성에는 미치지 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 표현되어 있습니다. 그러나 일부 정보가 누락되어 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.5924163961717945</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집의 최초합격자는 홈페이지를 통해 실시되며, 지원자는 반드시 합격 여부를 확인해야 합니다. 
+具体的来说，关于合格者公布时间的信息如下：
+- 最初的合格者公布将在学校网站上进行。
+- 所有申请人必须在公布的截止日期内检查自己的合格状态。
+对于补充合格者的公布，则是在2024年2月15日(星期四)至2024年2月20日(星期二)期间通过学校网站进行。</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 절차에 대한 설명으로 대체하고 있습니다. 원본 텍스트에서 명시된 면접고사 일정(2024. 01. 20.)이 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 면접 일정에 대한 구체적인 언급이 없고 일반적인 절차에 대한 설명으로 대체되어 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 면접고사에 대한 절차를 설명하고 있지만, 원본 텍스트의 핵심 정보인 면접 일정에 대한 언급이 없기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 절차를 나열하고 있지만, 원본 텍스트의 정보와 연결되지 않아 논리적인 흐름이 부족합니다. 따라서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 중요한 사실(면접 일정)을 누락하고 있으며, 일반적인 절차에 대한 설명으로 대체하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 면접 절차에 대한 설명을 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적으로 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.3823589152303036</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접고사에 대한 자세한 일정은 일반적으로 원서 접수와 함께 공지됩니다. 대략적인 절차는 다음과 같습니다:
+1. **원서 접수 마감 후**: 면접 일정이 공지됩니다.
+2. **대기실 입실**: 면접 당일에 대기실로 입장합니다.
+3. **신분 확인**: 대기실에서 신분을 확인받습니다.
+4. **고사장 이동**: 고사장으로 이동합니다.
+5. **고사장 입실**: 고사장에 들어가면 면접이 시작됩니다.
+具体的来说，面试通常会在以下时间进行：
+1. **报名截止后**：会公布面试日期。
+2. **到达候考室**：面试当天进入候考室。
+3. **身份验证**：在候考室进行身份确认。
+4. **前往考场**：从候考室到考场。
+5. **进入考场**：进入考场开始面试。
+为了获取确切的面试时间，请务必关注学校官网或报名系统中的通知。如果有任何疑问，也可以直接联系招生办公室确认具体安排。</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 언급하고 있지만, 일반적인 입학 요건에 대한 추가 정보를 제공하고 있습니다. 그러나 이러한 정보는 원본 텍스트에서 명시된 내용과는 다소 차이가 있으며, 원본 텍스트의 핵심 사실을 왜곡할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 특히, "일반적으로 한의예과의 입학 요건"이라는 표현은 원본 텍스트의 내용과 상충할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 다소 주제를 벗어날 수 있습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약해질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 추가된 정보가 정확하지 않을 수 있습니다. 특히, "일반적으로 한의예과의 입학 요건"에 대한 설명은 원본 텍스트의 내용을 왜곡할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 추가된 정보가 원본의 의미를 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.5956690484648233</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 한의예과의 최저학력 기준에 대한 정보는 제공된 데이터에서 명시되어 있지 않습니다. 
+하지만, 일반적으로 한의예과의 입학 요건은 다음과 같습니다:
+1. 고등학교 졸업 자격 또는 법령에 따른 동등 학력을 갖추어야 합니다.
+2. 수능 최저 기준이 없습니다 (표 내용에서 확인 가능).
+3. 진로선택 과목 성적 반영 방식이 있습니다 (표 내용 참조).
+4. 일부 전공과목의 석차 등급을 반영합니다 (표 내용 참조).
+따라서, 정확한 최저학력 기준을 알고 싶다면 동의대학교 입학처 웹사이트나 학교 관계자에게 직접 문의하는 것이 가장 확실한 방법입니다. 제공된 데이터만으로는 구체적인 최저학력 기준을 파악하기 어렵습니다.</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 언급하고 있지만, 일부 전형에서 수능 성적의 반영이 있을 수 있다는 추가 정보를 제공하고 있습니다. 이는 원문과 다소 상충하는 내용으로, 원문에서 명시적으로 수능 최저학력 기준이 없다고 했기 때문에 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 수능 성적의 반영 가능성을 언급함으로써 일관성이 떨어집니다. 원문에서는 수능 최저학력 기준이 없다고 명확히 했기 때문에, 이와 관련된 추가 정보는 혼란을 초래할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 수능 성적의 반영 가능성에 대한 언급이 원문과의 일관성을 해치므로 약간의 일관성 문제를 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 반영하고 있지만, 수능 성적의 반영 가능성에 대한 언급이 원문과 상충하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성과 유창성에서는 좋은 점수를 받지만, 사실성과 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있지만, 수능 성적의 반영 가능성에 대한 언급이 원문의 의미와 다소 어긋나므로 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용이지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.6053548308476402</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 정시모집에서는 명시적으로 수능 최저학력 기준을 제시하고 있지 않습니다. 지원자의 학력은 대체로 고등학교 졸업 또는 법령에 따른 동등 학력을 갖추고 있어야 합니다.
+하지만, 일부 전형에서 수능 성적의 반영이 있을 수 있으며, 이 경우 최저합격선 내에서 수능 점수를 충족해야 할 수도 있습니다. 예를 들어:
+- **학생부종합(성인학습자전형)**: 고등학교 졸업 또는 법령에 따른 동등 학력을 갖추고 있어야 합니다.
+- **학생부종합(재직자전형)**: 3년 이상의 산업체 근무 경력이 필요하며, 일부 모집단위에서는 수능 성적을 반영할 수 있습니다.
+따라서 정확한 최저학력 기준은 해당 전형의 세부 안내를 확인해야 합니다. 만약 더 자세한 정보가 필요하다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하거나 대학 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 주요 사실을 정확하게 반영하고 있습니다. 2차 충원합격자 발표일과 3차 이후 발표 기간이 정확하게 언급되었으나, "2024년 2월 15일(목)부터 충원합격자 발표가 시작됩니다"라는 문구는 다소 모호하게 느껴질 수 있습니다. 
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공합니다. 다만, "충원합격자 발표가 시작됩니다"라는 표현이 원본의 구체적인 발표 일정과 약간의 차이를 보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 충원합격자 발표 일정에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달됩니다. 다만, 일부 문장이 더 매끄럽게 연결될 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 발표 일정에 대한 정보가 정확합니다. 그러나 "발표가 시작됩니다"라는 표현이 다소 모호하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 일부 표현이 더 명확할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.8152481994620263</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 충원합격자 발표가 시작됩니다. 구체적으로:
+- 2차 충원 합격자는 2024년 2월 15일(목) 09:00에 발표됩니다.
+- 3차 이후의 충원 합격자는 2024년 2월 15일(목)부터 2024년 2월 20일(화) 18시까지 개별 전화 통보를 통해 발표됩니다.
+모든 충원합격자 발표는 입학 안내 홈페이지에서 개별 조회 가능하며, 고지서도 해당 사이트에서 출력하거나 입학관리팀에서 수령할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 주요 사실을 정확하게 반영하고 있습니다. 그러나 "추가합격자 발표"라는 표현이 다소 모호하게 사용되었고, "개별 전화 통보"라는 내용은 원본 텍스트에 명시되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일정과 일치하지만, "추가합격자 발표"라는 표현이 원본 텍스트의 내용과 약간의 차이를 보입니다. 또한, "개별 전화 통보"라는 내용은 원본에 없으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 발표 일정에 대한 정보를 잘 전달하고 있습니다. 모든 정보가 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달됩니다. 그러나 "개별 전화 통보" 부분이 원본과의 연결이 약해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, "개별 전화 통보"라는 추가 정보는 원본에 없으므로 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 세부 사항에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, "추가합격자 발표"와 "개별 전화 통보" 부분에서 약간의 의미적 불일치가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.7942804208137039</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 추가합격자를 발표합니다. 
+발표 일정은 다음과 같습니다:
+- 2024. 02. 14.(수) 09:00 - 1차 충원 합격자 발표
+- 2024. 02. 15.(목) 09:00 - 2차 충원 합격자 발표
+이외에도 3차 이후의 추가합격자는 개별 전화 통보를 통해 발표되며, 이는 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 이루어집니다.
+참고로, 모든 지원자는 이러한 합격자 발표 일정에 따라 홈페이지에서 개별적으로 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수시모집 등록자의 등록 포기로 인한 결원과 정시 모집단위별 등록인원이 모집인원에 미달된 경우에 대한 정보를 포함하고 있으며, 이는 원문과 일치합니다. 그러나 "고교 졸업예정자가 당해 연도에 졸업하지 못하는 경우"에 대한 추가적인 설명은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 졸업예정자의 졸업 여부에 대한 추가적인 정보가 포함되어 있어 원문과의 일관성이 떨어집니다. 원문은 수시모집 등록자의 결원에 대한 내용에 집중하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 추가모집의 조건과 관련된 내용을 잘 설명하고 있으며, 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 조건에 대한 설명이 명확하게 이어집니다. 그러나 원문과의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 대체로 일치하지만, 졸업예정자에 대한 추가적인 조건이 원문에 포함되어 있지 않아 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으나, 추가된 정보가 원문과의 맥락에서 다소 벗어나 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장에서 추가된 정보로 인해 혼란스러울 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.6337564972149076</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2024년 동일 연도에 고교 졸업예정자가 당해 연도에 졸업하지 못하는 경우 합격이 취소되며, 정시 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.
+따라서 추가모집은 일반적으로 다음과 같은 상황에서 이루어질 수 있습니다:
+1. **정시 모집 단위의 등록인원이 모집인원에 미달한 경우**: 해당 모집단위의 결원 인원을 정시 &lt;나&gt;군으로 이월하여 추가로 합격자를 선발합니다.
+2. **고교 졸업예정자가 당해 연도에 졸업하지 못하는 경우**: 이미 합격된 최초합격자 중 해당 조건에 해당하는 자가 있으면 그 인원은 합격이 취소되며, 이로 인한 결원을 충원합니다.
+따라서 추가모집 여부는 모집단위별 등록인원과 모집인원의 차이, 그리고 졸업예정자의 실제 졸업 상황에 따라 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 주요 정보를 포함하고 있으며, 지원 자격, 모집 단위 및 인원, 전형 요소 반영 비율, 제출 서류, 제출 기간 및 장소 등 대부분의 내용을 정확하게 반영하고 있습니다. 그러나 "만 30세 이상인 자"라는 조건은 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, "미래융합대학 인문사회 라이프융합학부 (정원외): 23명"이라는 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 일관성에 문제를 일으킵니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 평생학습자전형에 대한 질문에 대해 매우 관련성이 높습니다. 원본 텍스트의 주요 내용과 관련된 모든 정보를 잘 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 추가되면서 전체적인 흐름이 약간 어색해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 추가된 정보(예: 만 30세 이상인 자)로 인해 정확성에 약간의 문제가 있습니다. 따라서 점수는 4로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 정확성 등 여러 차원에서 좋은 점수를 받았습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보로 인해 약간의 의미적 부적절성이 발생할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.7418398104154222</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 동의대학교에서 평생교육을 받은 학습자들을 대상으로 하는 입학전형입니다. 주요 내용은 다음과 같습니다:
+1. 지원 자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+   - 만 30세 이상인 자 (1994년 2월 28일 이전 출생)
+2. 모집 단위 및 인원:
+   - 미래융합대학 인문사회 라이프융합학부: 11명
+   - 미래융합대학 인문사회 라이프융합학부 (정원외): 23명
+3. 전형 요소 반영 비율:
+   - 서류: 70%
+   - 면접: 30%
+4. 제출서류:
+   - 고교 학교생활기록부
+   - 검정고시 합격증서 및 성적증명서 (검정고시 출신자)
+   - 외국고교 졸업(예정)자의 경우 공증받은 증명서와 성적증명서
+5. 서류 제출 기간:
+   2024년 1월 3일 (수) ~ 1월 12일 (금) 17:00까지 도착분에 한함
+6. 서류 제출 장소:
+   부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+7. 추가 제출 사항:
+   - 외국고교 졸업예정자는 졸업 후 졸업증명서를 2024년 2월 16일 (금)까지 제출해야 함
+8. 서류 평가 영역 및 배점:
+   - 공동체역량: 최고 140점, 최저 98점
+   - 학업역량: 최고 280점, 최저 196점
+   - 전공적합성: 최고 280점, 최저 196점
+평생학습자전형은 평생교육을 받은 학습자의 다양한 경험과 능력을 종합적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 주요 정보를 정확하게 반영하고 있습니다. 그러나 "지원자의 나이는 특별히 제한되지 않으며, 만 30세 이상인 자도 지원이 가능합니다."라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대부분 일관되게 유지하고 있지만, 추가된 정보가 원본과 일치하지 않기 때문에 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 지원자격에 대한 정보를 직접적으로 언급하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 추가된 정보로 인해 정확성이 약간 떨어졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있지만, 일관성과 정확성에서 약간의 문제가 있어 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본의 의미를 왜곡할 수 있는 가능성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.8827876882346943</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자입니다.
+추가로, 지원자의 나이는 특별히 제한되지 않으며, 만 30세 이상인 자도 지원이 가능합니다. 
+따라서 주요 조건은 고교 졸업(예정) 또는 법령에 따른 동등 학력 소지자임을 확인하면 됩니다.
+더 궁금하신 점이나 추가 정보가 필요하시면 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 실기고사 진행 방식과 장소에 대한 일반적인 설명을 포함하고 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 내용이 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공합니다. 원본 텍스트는 특정 날짜와 시간에 대한 정보를 제공하는 반면, 생성된 응답은 일반적인 절차와 장소에 대한 설명으로 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 대기실 및 입실시간에 대한 정보와는 관련성이 떨어집니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성은 다소 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 실기고사에 대한 일반적인 정보만을 제공합니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 관계가 약해 다차원적 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 따라서 의미적 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.522982373292083</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 각각의 모집단위에 따라 다르게 진행되며, 일반적으로는 해당 학과 또는 부서에서 실시됩니다. 하지만 정확한 장소는 원서 접수 시 제공되는 안내서나 입학관리팀에서 확인해야 합니다.
+실제로 표에서 일부 실기고사의 장소 정보를 추출해보면:
+- 디자인조형학과: 학교 내 특정 시설
+- 체육학과: 운동장 등 학교 내 스포츠 시설
+- 레저스포츠학과: 운동장 등 학교 내 스포츠 시설
+- 태권도학과: 운동장 등 학교 내 스포츠 시설
+따라서 정확한 장소는 해당 모집단위의 입학관리팀이나 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 정확하게 포함하고 있으며, 날짜와 안내 방법도 올바르게 제시하고 있습니다. 그러나 체육학과의 실기고사에 대한 구체적인 정보가 부족하여 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 레저스포츠학과와 태권도학과의 실기고사 일정도 포함하고 있지만, 질문에서 요구한 체육학과에 대한 정보가 명확하지 않아 일관성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하며, 질문의 주제와 관련이 깊습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 잘 구조화되어 있으며, 각 학과의 실기고사 일정이 명확하게 나열되어 있습니다. 그러나 체육학과에 대한 정보가 부족하여 완전한 일관성을 제공하지 못하므로 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대기실 및 입실시간에 대한 정확한 정보를 제공하지만, 체육학과에 대한 구체적인 세부사항이 부족하여 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 품질 차원에서 잘 수행되었지만, 체육학과에 대한 정보 부족으로 인해 완벽하지 않으므로 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 질문의 맥락에 적절하게 의미를 전달하고 있지만, 체육학과에 대한 정보가 부족하여 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 체육학과에 대한 정보 부족으로 인해 약간의 혼란을 줄 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.5718229790252354</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **레저스포츠학과**:
+   - 날짜: 2024년 1월 16일 (화)
+   - 대기실 및 입실시간 안내: 2024년 1월 12일 (금) 14:00 이후
+   - 안내는 입학안내 홈페이지에서 확인 가능
+2. **태권도학과**:
+   - 날짜: 2024년 1월 17일 (수)
+   - 대기실 및 입실시간 안내: 2024년 1월 12일 (금) 14:00 이후
+   - 안내는 입학안내 홈페이지에서 확인 가능
+이 정보는 "전형일정" 표에서 얻었습니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 전화 통보가 없다는 점을 정확히 반영하고 있습니다. 그러나, "2024년 2월 고교 졸업예정자가 당해 연도에 졸업하지 못하는 경우 합격이 취소된다"는 내용은 원문에 포함되어 있지 않으며, 추가적인 정보가 포함되어 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 졸업예정자에 대한 언급이 원문에 없기 때문에 일관성이 떨어집니다. 원문은 전화 통보와 관련된 정보에 집중하고 있으며, 추가된 내용이 원문과의 일관성을 해치고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 수시 충원합격자 발표와 관련된 질문에 대해 매우 관련성이 높습니다. 전화 통보가 없다는 점과 합격 여부 확인의 중요성을 강조하고 있어 주제와 잘 맞아떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 문장 길이가 길어질 수 있어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 졸업예정자에 대한 언급이 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보의 정확성을 대부분 유지하고 있지만, 졸업예정자에 대한 추가 정보가 원문에 없기 때문에 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나 원문과의 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있지만, 졸업예정자에 대한 언급이 원문과의 의미적 일치를 약간 해치고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.5029968515369823</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2024년 2월 고교 졸업예정자가 당해 연도에 졸업하지 못하는 경우 합격이 취소되므로, 수시 충원합격자 발표 시에는 전화 주시는 것은 없습니다. 
+수시 충원합격자 발표 후에도 합격 여부를 확인해야 하며, 등록금 납부 등의 절차가 있습니다. 합격자가 발표된 이후에도 학생 본인의 책임으로 인한 불이익은 발생할 수 있으므로, 반드시 합격 여부를 확인하시기 바랍니다.
+만약 추가로 문의사항이 있으시다면 [주)유웨이어플라이 : 1588-8988](http://www.uwayapply.com)에 연락해보세요.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 왜곡하고 있으며, 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않다는 사실을 무시하고 다른 학부의 이름 변경에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트와 상충하는 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없으며, 원본에서 언급된 내용과는 전혀 다른 주제를 다루고 있습니다. 따라서 일관성 점수는 매우 낮습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 경찰행정학과 수시모집 결과에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성 점수는 최저입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본과 관련이 없기 때문에 점수를 다소 낮추었습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 최저입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 면에서 매우 낮은 점수를 받습니다. 따라서 전반적인 품질 점수도 최저입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 없기 때문에 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.6352272197591629</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有关于2023年警察行政学部的招生结果的具体内容。根据现有数据，最新的变化是专业和课程名称的调整，例如：
+- 保育·家政学部更名为儿童学部
+- 经济金融保险学部更名为金融经营学部
+- 信息经营学部（经营信息学、e商务学）拆分为经营信息学部和e商务学部
+- 其他一些课程名称也发生了变化
+如果您需要了解2023年警察行政学部的具体招生结果，建议直接访问学校官网或联系学校的招生办公室获取最新和准确的信息。您也可以参考“https://ipsi.deu.ac.kr/main.do”以获得更详细的内容。</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않아도 지원할 수 있는 전형이 있다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 원문과 상충되는 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있어 일관성이 없습니다. 원문은 수능 응시가 필수적이라고 명시하고 있지만, 생성된 응답은 수능을 응시하지 않아도 지원할 수 있는 전형이 있다고 주장합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문 질문에 대한 답변을 제공하려고 하지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 설명을 포함하고 있지만, 원문과의 불일치로 인해 논리적 흐름이 약해집니다. 원문과의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하는 내용을 포함하고 있어 적절하지 않습니다. 원문의 맥락을 무시하고 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.550515519711278</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집에서 일부 전형에서는 수능을 응시하지 않아도 지원이 가능합니다. 특히, 실기/실적 위주 전형과 학생부 종합전형은 수능 점수를 요구하지 않을 수 있습니다.
+예를 들어:
+- **실기/실적(경기실적우수자전형)**: 이 전형에서는 주로 실기나 실적을 평가하며, 수능 성적이 아닌 해당 분야의 능력을 기반으로 지원자를 평가합니다.
+- **학생부종합전형**: 일부 모집단위에서는 학생부와 면접 등을 통해 지원자를 평가하므로 수능 점수가 필요하지 않을 수 있습니다.
+그러나, 모든 전형이 수능을 요구하지 않는 것은 아닙니다. 특정 모집단위에서는 수능 성적이 필수적으로 고려될 수 있으므로, 정확한 정보를 얻기 위해서는 해당 대학의 공식 홈페이지 또는 입학처와 직접 확인하는 것이 좋습니다.
+더 자세한 내용은 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 대학 입학처에 문의하시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지난 경우에도 정시 지원이 가능하다는 점을 언급하고 있지만, 학생부종합전형에 대한 추가 조건을 제시하고 있습니다. 이는 원문에서 언급된 내용과는 다소 차이가 있으며, 원문에서는 정시 지원 가능성에 대한 명확한 정보만 제공하고 있습니다. 따라서 일부 사실이 정확하지 않거나 추가적인 정보가 필요합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 학생부종합전형에 대한 조건을 추가하여 원문과의 일관성이 떨어집니다. 원문에서는 정시 지원 가능성에 대한 정보만 제공하고 있으므로, 생성된 응답의 추가 정보는 원문과의 일관성을 해치는 요소로 작용합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대한 답변으로 관련성이 높지만, 학생부종합전형에 대한 추가 정보가 포함되어 있어 원문과의 직접적인 관련성은 다소 떨어집니다. 그러나 여전히 주제와 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 조건이 명확하게 나열되어 있습니다. 그러나 원문과의 연결성이 약해져서 전체적인 일관성이 다소 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지난 경우의 지원 가능성을 언급하고 있지만, 학생부종합전형에 대한 조건이 원문과 다르게 제시되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부 정보는 유용하지만 원문과의 일관성 및 정확성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 전달하고 있지만, 추가된 조건이 원문과의 의미적 일관성을 약화시키고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조건 제시로 인해 이해도가 높습니다. 다만, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.6977979486547604</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2024년 동계 학생부종합전형의 경우, 고등학교 졸업 후 10년이 지난 사람도 지원 가능합니다. 그러나 일반적으로 대학은 최근 졸업자들을 대상으로 하므로 오랜 시간 경과된 졸업자의 경우 특별한 이유가 있어야 합니다.
+특히 나군 학생부종합전형의 경우에는 고등학교 졸업(예정)자 또는 법령에 의한 동등학력 소지자로서 만 30세 이상인 자를 대상으로 합니다. 따라서, 당신의 경우:
+1. 만 30세 이상이어야 합니다.
+2. 최근에 재직 경력을 가지고 있어야 합니다 (재직기간은 3년 이상).
+3. 특별한 이유가 있어야 합니다.
+만약 위 조건을 충족한다면 지원 가능하지만, 일반적으로 오랜 시간 경과된 졸업자는 학생부종합전형에 지원하기 어려울 수 있습니다. 이 경우, 다른 전형(예: 실기/실적전형)이나 정시모집 등을 고려해 보는 것이 좋습니다.
+추가로 확인해야 할 사항:
+- 지원 자격 조건을 다시 한번 확인하세요.
+- 입학사정관의 판단이 중요하므로 특별한 이유를 설명할 수 있는 증빙자료를 준비하세요.
+- 지원 가능성을 확신하기 전에 대학교 입학처와 상담해 보세요.
+대부분의 경우, 오랜 시간 경과된 졸업자는 학생부종합전형에서 불리한 위치에 있을 수 있으므로 다른 방법을 고려하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 일정과 세부 사항을 잘 반영하고 있으나, 일부 세부 사항이 생략되거나 간략화되어 있어 완전한 정확성을 보장하지는 않는다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있으나, 일부 세부 사항에서 약간의 차이가 있어 완전한 일관성을 보장하지는 않는다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 모든 주요 일정이 포함되어 있어 매우 관련성이 높다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장에서 약간의 어색함이 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽지만, 일부 부분에서 더 명확한 연결이 필요할 수 있다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 일부 세부 사항이 생략되어 있어 완전한 정확성을 보장하지는 않는다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 품질을 유지하고 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 일부 표현에서 약간의 차이가 있을 수 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.8155031139262657</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 주요 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+2. **원서접수(인터넷)**:
+   - 기간: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토)
+   - 마감 시간: 18시까지
+   - 접속 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 기간: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금)
+   - 마감 시간: 17시까지
+   - 서류 제출 대상: 일부 모집단위에 따라 다르며, 입학안내 홈페이지에서 확인 가능
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과: 2024년 1월 16일 (화)
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인): 2024년 1월 17일 (수)
+   - 체육학과: 2024년 1월 17일 (수)
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+     - 지정 기간 내에 등록금을 납부해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차: 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - 2차: 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - 3차 이후: 개별 전화 통보
+7. **등록금 환불 신청**:
+   - 기간: 2024년 2월 14일 (수) ~ 2024년 2월 20일 (화) 12:00
+   - 방법: 입학안내 홈페이지에서 온라인으로 신청
+8. **기타 유의사항**:
+   - 원서접수 마감일까지 사이트 접속이 차단될 수 있으므로 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.
+   - 서류 제출은 반드시 지정된 시간 내에 도착해야 하며, 서류 제출 여부는 홈페이지에서 확인할 수 있습니다.
+이 일정을 준수하고 필요한 준비를 하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 완벽하게 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.9059202640537347</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 정시모집 일정은 다음과 같습니다:
+1. **2024년 1월 2일 (화) - 모집인원 확정 공고**
+   - 입학안내 홈페이지에서 공고
+2. **2024년 1월 3일 (수) ~ 2024년 1월 6일 (토)** 
+   - 원서접수 (인터넷)
+   - 마감시간: 18시까지
+   - 접속 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **2024년 1월 3일 (수) ~ 2024년 1월 12일 (금)** 
+   - 서류제출 (필요한 경우)
+   - 마감시간: 17시까지
+   - 제출장소: 입학관리팀 또는 우편
+4. **2024년 1월 16일 (화)**
+   - &lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)
+5. **2024년 1월 17일 (수)**
+   - &lt;나&gt;군 실기고사 (디자인조형학과, 체육학과, 공예디자인)
+6. **2024년 2월 2일 (금) 14:00**
+   - 최초합격자 발표
+   - 홈페이지에서 개별 조회 가능
+7. **2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)** 
+   - 최초합격자 등록
+   - 지정은행 내 은행마감시간까지
+8. **2024년 2월 14일 (수) 09:00**
+   - 충원 합격자 1차 발표
+   - 홈페이지에서 개별 조회 가능
+9. **2024년 2월 15일 (목) 09:00 ~ 16:00**
+   - 충원 합격자 1차 등록
+10. **2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지**
+    - 충원 합격자 2차 발표 및 등록
+11. **합격자 발표 및 등록금 납부 과정에서 학생들은 최종적으로 합격 여부와 등록금 납부를 완료해야 합니다.**
+이 일정은 일반적인 정시모집 일정이며, 일부 모집단위나 전형에 따라 약간의 차이가 있을 수 있으므로 공식 홈페이지에서 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있는 전형이 있다고 주장하지만, 원문에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 제공합니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시되어 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형을 제시하고 있습니다. 이는 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서의 핵심 정보인 수능 미응시자의 지원 불가능성을 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 원문과의 사실적 불일치로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있습니다. 수능 미응시자는 지원이 불가능하다는 원문의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.6877079573725108</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **학생부종합(성인학습자(정원내)전형)** - 이 전형에서는 수능 점수를 요구하지 않습니다.
+2. **학생부종합(성인학습자(정원외)전형)** - 이 전형에서도 수능 점수는 필요하지 않습니다.
+이 외의 대부분의 전형은 수능 점수가 필수적으로 요구되므로, 수능 미응시자는 위 두 전형을 통해 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 전년도 전자공학과의 충원 합격이 36명까지 이루어졌다는 사실을 언급하지 않고, 2024년 입시 일정에 대한 정보를 제공하고 있습니다. 이는 원문에서 제공된 구체적인 사실을 누락한 것으로, 사실성 점수를 낮추는 요소입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 언급된 충원 합격 차수에 대한 정보가 없다는 점과 충원 절차에 대한 예측을 제시하고 있습니다. 그러나 원문과의 일관성이 부족하여 점수를 낮추게 됩니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 충원 절차에 대한 정보를 제공하고 있지만, 원문에서 요구하는 전년도 전자공학과의 충원 합격에 대한 구체적인 정보와는 다소 거리가 있습니다. 그러나 여전히 관련된 주제를 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 충원 절차에 대한 설명이 일관되게 이어집니다. 그러나 원문과의 연결성이 약간 부족하여 점수를 낮추었습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 전년도 전자공학과의 충원 합격에 대한 구체적인 사실을 제공하지 않으며, 예측에 기반한 정보만을 포함하고 있습니다. 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 평균적이며, 사실성과 일관성에서 부족함이 있어 전반적인 점수를 낮추게 됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원문에서 요구하는 구체적인 정보와는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.5798624677086354</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2024년 입시 일정을 보면, 충원 절차는 다음과 같습니다:
+1. 2024. 02. 14.(수) 09:00 - 1차 충원 합격자 발표 및 등록
+2. 2024. 02. 15.(목) 09:00 - 2차 충원 합격자 발표 및 등록
+따라서 전년도(2023년)에도 비슷한 절차로 보아, 전자공학과의 충원 합격은 최대 2차까지 이루어졌을 가능성이 높습니다. 하지만 정확한 정보는 해당 대학 입학처 웹사이트나 공식 안내서를 확인하는 것이 가장 확실합니다.
+참고로, 이 일정은 일반적인 절차이며 특정 학과나 모집단위에 따라 약간의 차이가 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 입학관리팀의 전화번호를 잘못 기재하였으며, 제공된 웹사이트와도 관련이 없습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 포함하고 있습니다. 전화번호와 웹사이트가 모두 다릅니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교와 관련된 정보를 제공하려고 하지만, 잘못된 전화번호와 웹사이트를 제시하여 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 구조를 가지고 있지만, 제공된 정보가 원본 텍스트와 일치하지 않기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 전화번호와 웹사이트 주소가 모두 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 사실성, 일관성, 관련성, 정확성 모두 낮기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 동의대학교에 대한 정보를 제공하려고 하지만, 잘못된 정보로 인해 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.497741327849627</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>东义大学入学处的电话号码是：1588-8988。您可以通过这个电话号码咨询与网上申请相关的问题。
+另外，您也可以访问他们的官方网站获取更多信息：http://www.uwayapply.com
+如果您需要进一步的帮助或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있지만, "충원합격이 되었으나"라는 표현이 원본의 의미를 약간 왜곡하고 있습니다. 원본에서는 충원합격 통보가 어려운 경우에 대한 설명이므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일관성을 유지하려고 하지만, "전화 통화가 되지 않아도 충원합격 사실을 확인하지 못한 지원자는 등록을 하지 않는 것이 좋습니다."라는 문장은 원본의 내용과 다소 상충하는 부분이 있습니다. 원본에서는 등록 의사가 없는 것으로 간주된다고 명시하고 있으므로, 이 부분에서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제를 잘 다루고 있으며, 관련된 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 "충원합격이 되었으나"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 전체적으로 잘 구성되어 있습니다. 그러나 일부 문장에서 원본과의 차이로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본의 사실을 대체로 정확하게 반영하고 있지만, 일부 표현에서 정확성이 떨어지는 부분이 있습니다. 특히, "충원합격이 되었으나"라는 표현이 원본의 의미를 왜곡할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본의 의미와 맥락에 대체로 적합하지만, 일부 표현에서 의미가 약간 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 표현에서 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.8229605386232077</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격이 되었으나 등록 의사가 없는 경우, 해당 지원자는 등록 포기자로 간주됩니다. 따라서 전화 통화가 되지 않아도 충원합격 사실을 확인하지 못한 지원자는 등록을 하지 않는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 필요한 서류와 조건을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 잘 정리되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 필요한 서류와 조건을 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.7877111644079428</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정 모두 다음과 같은 기본적인 서류가 필요합니다:
+### 6년 과정:
+1. **지원자 본인의 가족관계증명서** (1부)
+2. **지원자 본인, 부, 모의 주민등록초본** (각 1부, 총 3부)
+3. **중학교 학교생활기록부** (1부)
+4. **고등학교 학교생활기록부** (1부)
+### 12년 과정:
+1. **지원자 본인의 주민등록초본** (1부)
+2. **초등학교 학교생활기록부** (1부)
+3. **중학교 학교생활기록부** (1부)
+4. **고등학교 학교생활기록부** (1부)
+### 추가 조건:
+- 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부를 추가로 제출해야 합니다.
+- 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세)와 본인의 기본증명서(상세)를 추가로 제출해야 합니다.
+### 기타 주의사항:
+- 주민등록초본은 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.
+- 상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출 가능합니다.
+위와 같은 서류들을 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀으로 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류 목록을 정확하게 나열하고 있으며, 주민등록초본의 발급 조건도 올바르게 설명하고 있습니다. 그러나 제출 기간과 장소에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분은 추가 정보로 간주할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 반영하고 있지만, 추가된 주의사항이 원본 텍스트와 일치하지 않기 때문에 일관성이 떨어집니다. 원본 텍스트에는 제출 기간과 장소에 대한 정보가 없으므로, 이로 인해 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 제출해야 할 서류에 대한 정보를 명확하게 전달하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 추가된 주의사항이 원본 텍스트와의 연결이 약해져서 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 주민등록초본의 발급 조건도 정확하게 설명하고 있습니다. 그러나 추가된 정보가 원본에 없기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 추가된 정보가 원본과의 맥락에서 다소 어색하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 추가 정보가 혼란을 줄 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.7625893806789131</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부 
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+추가로 주의사항:
+- 제출기간은 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+- 제출장소는 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+- 서류제출 여부는 홈페이지에서 확인 가능하며, 반드시 본인의 서류제출 여부를 확인해야 함
+- 미제출 또는 미확인으로 인한 불이익은 전적으로 지원자 본인에게 있습니다.
+- 주민등록초본은 고교졸업 이후 발급되어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.
+위와 같이 준비하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않고 있으며, 저소득 기회균등 전형에 대한 언급이 모호합니다. 따라서 사실성과 관련하여 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 기회균등 전형의 존재 여부에 대한 정보가 상충합니다. 원본 텍스트는 기회균등 전형이 존재하지 않는다고 명시하고 있지만, 생성된 응답은 그에 대한 명확한 언급이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 저소득 기회균등 전형에 대한 정보가 부족하여 완전한 관련성을 제공하지 않습니다. 원본 텍스트의 핵심 내용을 충분히 다루지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 기회균등 전형의 존재 여부에 대한 정보가 부정확합니다. 따라서 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 특히 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과 일치하지 않는 부분이 있어 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관계가 명확하지 않아 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.5663404387503091</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到在2024年定期招生（정시모집）中的低收入机会均等类型（저소득 기회균등 전형）是否会被选拔。相关信息主要集中在不同类型的入学考试、录取标准和程序等方面，但并未提及具体的低收入机会均等类型的招生情况。
+如果您需要了解这方面的详细信息，建议直接访问东国大学的官方网站（https://ipsi.deu.ac.kr/main.do），或者联系学校的招生办公室获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 영어 등급 평균산출 시 소수점 셋째자리에서 절사한다는 내용을 포함하고 있지만, 원본 텍스트에서는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 없다고 명시하고 있습니다. 따라서, 생성된 응답은 원본 텍스트와 상충하는 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 수능 영어 등급에 대한 절사 규칙을 언급하고 있습니다. 이는 원본 텍스트에서 다루고 있는 주제와 일치하지 않기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저등급에 대한 질문에 대한 답변을 제공하려고 하지만, 수능 영어 등급에 대한 정보로 주제를 벗어나고 있습니다. 따라서 관련성은 있지만, 주제와의 직접적인 연관성은 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 수능 최저등급에 대한 질문에 대한 답변으로서의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있으며, 수능 최저등급에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 부족함이 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다. 따라서 의미적 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 예시를 통해 설명하고 있습니다. 그러나 주제와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.7530507592090578</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2024년 동일한 입학전형의 경우, 수능 영어 등급 평균산출 시 소수점 셋째자리에서 절사한다는 내용이 포함되어 있습니다.
+따라서, 사탐 2과목의 평균을 계산할 때에도 소수점 셋째자리를 절사하여 반올림합니다. 
+예를 들어:
+- 만약 두 과목의 등급이 각각 2등급과 3등급이라면 평균은 (2+3)/2 = 2.5가 됩니다.
+- 이때, 2.5는 소수점 셋째자리에서 절사되어 2로 반올림됩니다.
+따라서, 2.5등급이 나오더라도 실제 평균 등급은 2등급으로 처리될 것입니다.
+만약 입학전형의 세부 지침이나 변경사항이 있다면, 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 충원 합격자 발표와 등록 기간에 대한 정보를 추가로 제공하고 있지만, 원본 텍스트에서 언급된 3차 이후 발표에 대한 정보가 누락되어 있습니다. 따라서 일부 사실이 정확하지 않거나 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 3차 이후 발표에 대한 언급이 없어서 일관성이 떨어집니다. 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 충원 합격자 발표에 대한 내용을 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표와 등록에 대한 정보를 체계적으로 나열하고 있습니다. 그러나 3차 이후 발표에 대한 정보가 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 3차 이후 발표에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 일부 정보의 누락으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 3차 이후 발표에 대한 정보가 부족하여 완전한 적절성을 제공하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 다만, 3차 이후 발표에 대한 정보가 부족하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.6720805966784789</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 충원 합격자는 다음과 같이 발표됩니다:
+1. **1차 충원 합격자 발표**: 
+   - 날짜: 2024년 2월 14일(수) 09:00
+   - 방법: 홈페이지 개별 조회
+2. **1차 충원 합격자 등록**:
+   - 기간: 2024년 2월 14일(수) 09:00 ~ 16:00
+   - 방법: 지정은행에서 등록금 납부
+3. **2차 충원 합격자 발표**: 
+   - 날짜: 2024년 2월 15일(목) 09:00
+   - 방법: 홈페이지 개별 조회
+4. **2차 충원 합격자 등록**:
+   - 기간: 2024년 2월 15일(목) 09:00 ~ 16:00
+   - 방법: 지정은행에서 등록금 납부
+따라서, 정시 충원 합격자는 총 **3차**까지 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 e-비즈니스학과의 모집요강에 대한 구체적인 정보를 제공하지 않으며, 일반적인 조건들에 대한 설명을 하고 있습니다. 그러나 원본 텍스트에서 제공된 수치와 평균 점수에 대한 언급이 부족하여 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 구체적인 수치나 조건을 언급하지 않고 일반적인 정보로 대체하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 일반적인 정보를 제공하고 있으나, 원본 텍스트의 구체적인 수치와 비교하여 추가 합격 가능성에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으나, 원본 텍스트와의 연결이 약해져서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 정확한 정보가 부족하고, 원본 텍스트의 구체적인 수치를 반영하지 않아 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 평균 이하로 평가되며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하나, 원본 텍스트의 구체적인 내용과는 다소 거리가 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 내용으로 잘 전달되고 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.5505942051354498</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>2024학년도에 공개된 정보로는 e비즈니스학과의 모집요강을 확인하지 못했습니다. 하지만 일반적으로 수능 성적만으로 정시 전형에서 추가 합격이 가능한지 여부는 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **모집인원 및 지원자 수**: 각 모집단위의 모집인원과 지원자의 수가 결정적인 역할을 합니다.
+2. **성적 기준**: 일부 대학에서는 정시 전형에서도 특정 성적 기준을 두고 있을 수 있습니다.
+3. **전년도 데이터 참고**: 이전 연도의 합격자들의 성적 분포를 참조하면 도움이 될 수 있습니다.
+4. **대학별 정책**: 각 대학마다 정시 모집에서의 성적 기준이나 추가합격 가능성에 대한 정책이 다를 수 있으므로, 해당 대학의 공식 홈페이지나 입학처와 직접 확인하는 것이 가장 정확합니다.
+따라서 e비즈니스학과의 경우 4.6이라는 성적이 정시 전형에서 추가 합격 가능할지는 확실하지 않습니다. 정확한 정보를 얻기 위해서는 해당 대학의 공식 홈페이지나 입학처에 직접 문의하시는 것이 좋습니다.
+추가로, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e비즈니스학과의 평균 등급을 4.33으로 언급하고 있으나, 원본 텍스트에서는 영어 등급 평균이 3.66, 수능 4개 영역 등급 평균이 4.53이라고 명시되어 있습니다. 이로 인해 생성된 응답의 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 예를 들어, 모집인원과 지원자 수에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 등급 평균에 대한 정보도 다릅니다. 이러한 불일치는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 여러 요소를 고려하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 정보는 원본 텍스트와 직접적으로 연결되지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 특히, 등급 평균과 관련된 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 차원에서 긍정적인 평가를 받을 수 있지만, 사실성과 정확성에서 큰 결함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와 다소 어긋나는 부분이 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 복잡한 문장은 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.5942807763924688</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 e비즈니스학과의 최초합격 가능성을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **모집인원 및 지원자 수**: e비즈니스학과의 모집인원은 30명이며, 지원자는 10명입니다 (표에서 확인). 이는 매우 낮은 경쟁률을 의미합니다.
+2. **등급 평균**: 표에서 제공된 정보를 보면, e비즈니스학과의 등급 평균은 4.33입니다. 이는 동일한 학과 내에서 가장 낮은 수준의 성적입니다 (표에서 확인).
+3. **성적 기준**: 동의대학교의 전형요소 반영비율을 보면, e비즈니스학과는 학생부교과 18% + 출결 12% + 서류(실적) 70%로 구성되어 있습니다 (표에서 확인). 이 중 성적이 가장 큰 비중을 차지하므로, 국어, 수학, 영어 등 주요 과목의 성적이 중요합니다.
+4. **성적 평균**: 동일 학과의 성적 평균이 5.3보다 낮은 경우가 많습니다 (표에서 확인). 이는 동등한 또는 더 높은 성적을 가진 지원자가 최초합격 가능성을 가지고 있다는 것을 의미합니다.
+따라서, e비즈니스학과의 등급 평균이 5.3인 경우, 최초 합격 가능성은 있습니다만, 확실하지는 않습니다. 경쟁률이 매우 낮고, 동일 학과 내에서 성적이 상대적으로 높지 않기 때문에, 다른 지원자들과 비교하여 우위를 점해야 합니다.
+추가적인 정보와 개인의 전반적인 성적 및 서류 내용을 고려하면 더욱 정확한 판단이 가능할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실을 왜곡하고 있으며, 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않고 있습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 추가 정보를 요구하며 불확실한 조언을 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있으나, 생성된 응답은 그와 반대되는 내용을 제시하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주어진 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 원본 텍스트의 핵심 정보인 합격 가능성에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 요소를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 결여되어 있습니다. 각 요소가 원본 텍스트와 어떻게 연결되는지 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 예비 38번의 합격 가능성에 대한 잘못된 정보를 제공합니다. 원본 텍스트의 내용을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원본 텍스트의 핵심 정보를 제대로 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 질문에 대한 적절한 답변을 제공하지 않습니다. 원본 텍스트의 주제를 벗어난 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 부족하여 이해하기 어려운 부분이 있습니다. 질문에 대한 명확한 답변이 없기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.5060723473940189</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要更多的信息，比如您的具体成绩和排名。不过，我可以根据您提供的信息给出一些指导。
+假设您是“e비즈니스학과”（eBusiness Department）的预选38号候选人，并且想了解是否有可能被录取，可以参考以下几点：
+1. **竞争情况**：查看该专业的最终录取分数线和竞争比例。如果您的成绩接近或超过这个分数线，则有较大可能被录取。
+2. **成绩分析**：
+   - 国语 + 数学 + 选考科目（2个）的标准化转换总分 { 平均 / 标准差 }
+   - 英语等级 { 平均 / 标准差 }
+   - 所有4个考试科目的等级 { 平均 / 标准差 }
+   - 国语 + 数学 + 选考科目（2个）的标准化转换总分 (含加分) { 平均 / 标准差 }
+3. **排名**：预选38号意味着您在该专业的预选名单中排名第38位。如果这个排名相对靠前，那么被录取的可能性较大。
+4. **其他因素**：
+   - 如果您的成绩接近或超过最终的录取分数线，则有很大机会。
+   - 有些专业可能会考虑综合评价（如面试、特长等），所以即使分数稍低但有突出表现也可能被录取。
+建议您查看具体的录取分数线和竞争比例，以及该专业的具体招生政策。如果有疑问，可以咨询学校的招生办公室获取更准确的信息。
+如果您能提供具体的标准化转换总分和其他相关信息，我可以给出更详细的分析。</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 모집요강과 관련된 여러 요소를 잘 설명하고 있으며, 수능 점수 3.44에 대한 합격 가능성을 논의하고 있습니다. 그러나, 수능 4개 영역 등급 평균이 3.37이라는 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 간호학과의 합격 가능성에 대한 논의가 일관되게 이어집니다. 다만, 일부 세부 사항에서 원본 텍스트와의 일치성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 요소가 잘 연결되어 있어 일관된 메시지를 전달합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 수능 4개 영역 등급 평균에 대한 정보가 누락되어 있어 완전한 정확성에는 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 내용을 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.6302007769471024</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 모집요강을 바탕으로 분석해보겠습니다.
+간호학과는 정원 외 모집단위이며, 모집인원은 22명입니다. 합격 가능성에 대한 판단을 위해 몇 가지 요소를 고려해야 합니다:
+1. **모집요건**: 간호학과의 경우 일반적으로 수능 성적과 학생부가 중요한 평가 기준이 됩니다.
+2. **성적 평균 및 분산**:
+   - **수능 4개 영역 등급 평균**: 3.44는 상당히 높은 점수입니다.
+   - **수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균**: 이 값이 중요하지만, 정확한 수치를 제공하지 않았습니다.
+3. **경쟁률**:
+   - 간호학과의 경쟁률은 매우 높을 가능성이 있습니다. 예를 들어, 2023년도에 145명의 지원자가 22명의 모집인원을 겨루었기 때문에, 6.59:1이라는 높은 경쟁률이 있었습니다.
+4. **학생부 평가**:
+   - 학생부 종합평가 영역에서 인성, 학업역량, 전공적합성 등을 평가받습니다.
+   - 동의대학교는 면접평가를 통해 지원자의 진정성을 확인하기도 합니다.
+5. **전형요소 반영비율**:
+   - 수능 성적이 38%를 차지하며, 이는 중요한 요인입니다.
+   - 학생부 종합 평가와 면접 등이 추가로 고려됩니다.
+6. **최종 결정**:
+   - 3.44의 수능 점수는 좋은 성적입니다만, 간호학과의 경쟁률이 매우 높기 때문에 합격 가능성은 낮을 것으로 예상됩니다.
+   - 그러나 최종 합격 여부는 면접평가와 학생부 종합 평가 등 다양한 요소에 따라 결정되므로, 모든 기회를 포기하지 않는 것이 좋습니다.
+결론적으로, 3.44의 수능 점수만으로 간호학과에 확실하게 합격하기는 어렵다고 볼 수 있습니다. 그러나 지원을 해보시고 최선을 다해 준비한다면, 합격 가능성은 열려 있다고 할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 정시 성적 2.52가 낮다고 언급하고 있으며, 이전 합격자들의 평균 점수가 3.0 이상이라고 주장하고 있습니다. 그러나 원본 텍스트에서는 2.52가 평균 등급보다 높다고 명시하고 있어 사실과 상충합니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 정시 성적에 대한 해석이 상반됩니다. 원본에서는 합격 가능성이 높다고 했지만, 생성된 응답에서는 낮다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 여러 요소를 다루고 있어 관련성이 높지만, 원본 텍스트의 핵심 정보와는 다소 동떨어진 부분이 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 일관성이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 특히, 정시 성적에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 일관성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.6394264791014175</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 경우, 정시 모집인원은 110명이며, 해당 과정은 교직 전형으로 진행됩니다. 간호학과의 정원 내외 모집인원과 경쟁률을 고려할 때, 성적이 2.52라는 점에서 합격 가능성은 낮습니다.
+간호학과는 일반적으로 높은 경쟁률을 보이며, 수능 표준점수와 등급이 중요한 평가 요소 중 하나입니다. 정시 성적 2.52는 상당히 낮은 점수로, 이전 년도의 합격자들의 평균 점수가 3.0 이상인 경우가 많습니다.
+다만, 다음과 같은 요소들이 합격 가능성에 영향을 미칠 수 있습니다:
+1. **면접 성적**: 간호학과는 면접 점수도 중요한 평가 항목입니다. 좋은 면접 성적이 있다면, 이점이 합격 가능성을 높일 수 있습니다.
+2. **학생부 종합 평가**: 학생부 종합 평가에서 우수한 결과를 얻었다면, 이는 합격 가능성에 긍정적인 영향을 미칠 수 있습니다.
+3. **추천서 및 특기사항**: 추천서나 특기사항 등이 있다면 이를 잘 활용하여 지원자의 전반적인 능력을 보완할 수 있습니다.
+4. **동기부여와 진로 계획**: 면접에서 지원자의 동기부여와 진로 계획을 잘 설명한다면, 이는 긍정적으로 평가될 수 있습니다.
+결론적으로, 정시 성적이 2.52인 경우 간호학과의 최종 합격 가능성은 낮지만, 면접 및 기타 평가 항목에서 우수한 결과를 얻을 경우 합격 가능성을 높일 수는 있습니다. 그러나 이는 매우 어렵고 경쟁률이 매우 높은 상황임을 인지해야 합니다.
+추천되는 조치는:
+- 면접 준비에 집중하고, 지원자의 진로 계획과 동기부여를 잘 설명할 수 있도록 준비합니다.
+- 학생부 종합 평가에서 우수한 결과를 얻도록 노력합니다.
+- 추천서 및 특기사항을 잘 작성하여 지원자의 전반적인 능력을 보완합니다.
+이러한 조치들을 통해 최선을 다해 지원해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 관련된 정보를 제공하고 있으며, 3.7의 성적이 낮다는 점을 언급하고 있습니다. 그러나 "3.5 이상이어야 합격 가능성이 높다"는 부분은 다소 주관적일 수 있으며, 명확한 기준이 제시되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 간호학과의 평가 기준에 대해 설명하고 있지만, 원본 텍스트에서 제시된 평균 성적과의 직접적인 비교가 부족합니다. 따라서 일관성이 다소 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 합격 가능성에 대한 여러 요소를 고려하고 있습니다. 원본 텍스트와 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 각 요소가 명확하게 설명되고 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 간호학과의 합격 가능성에 대한 정보를 제공하고 있으며, 전반적으로 정확하지만, 특정 수치에 대한 명확한 출처가 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 정보를 제공합니다. 다만, 일부 주관적인 해석이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.6771790560594172</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집요강을 보면, 간호학과는 주로 수능 성적과 학생부를 종합적으로 평가합니다. 그러나 정확한 합격 가능성을 판단하기 위해서는 다음과 같은 정보들을 고려해야 합니다:
+1. **수능 성적**: 3.7의 표준점수는 상당히 낮은 점수입니다. 간호학과의 경우, 보통 수능 4개 영역의 평균 점수가 3.5 이상이어야 합격 가능성이 높습니다.
+2. **학생부 성적**: 정시 모집에서는 수능 성적이 중요한 요소지만, 학생부 성적도 중요합니다. 특히 국어, 수학, 영어 등 주요 과목의 성적이 좋으면 유리할 수 있습니다.
+3. **전형별 특성**: 간호학과는 종종 인성평가와 면접을 포함하여 전반적인 학생의 적합성을 평가하기 때문에, 학생부에서 보여주는 인성 및 활동 경력이 중요합니다.
+4. **모집인원과 지원자 수**: 모집인원과 지원자의 수에 따라 경쟁률이 달라질 수 있습니다. 경쟁률이 높다면 낮은 성적을 가진 학생도 합격하기 어렵습니다.
+5. **추천서 및 자기소개서 등 추가 자료**: 일부 전형에서는 추천서나 자기소개서 등의 추가 자료를 요구할 수 있으므로, 이에 대한 준비가 필요합니다.
+따라서 3.7의 표준점수로 간호학과에 합격하기 위해서는:
+- **학생부 성적**이 높아야 합니다.
+- **인성 및 활동 경력**이 충분해야 합니다.
+- **추천서와 자기소개서 등 추가 자료**가 강한 것이 좋습니다.
+결론적으로, 3.7의 표준점수로는 낮은 확률로 합격할 수 있지만, 학생부 성적과 인성 및 활동 경력이 매우 뛰어나다면 가능성을 높일 수 있습니다. 정확한 판단을 위해서는 동의대학교 간호학과의 최종 모집요강을 확인하고, 전형별로 요구되는 자료들을 준비하는 것이 중요합니다.
+추가적으로, 동의대학교 입학 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 통해 가장 최신 정보와 자세한 내용을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평가 요소에 대한 정보를 제공하고 있으며, 수능 성적과 인성면접 성적이 중요하다는 점을 강조하고 있습니다. 그러나 원본 텍스트에서 제시된 평균 성적에 대한 언급이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 간호학과의 합격 가능성에 대한 논의를 이어가고 있습니다. 다만, 원본 텍스트의 특정 수치(영어 등급 평균 등)에 대한 언급이 없어서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적과 인성면접 성적의 중요성을 잘 설명하고 있지만, 원본 텍스트의 구체적인 수치에 대한 언급이 부족하여 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.6526357759061638</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집요강을 보면, 간호학과는 주로 수능 성적과 인성면접 결과를 종합적으로 평가합니다. 하지만 정확한 합격 가능성을 판단하기 위해서는 다음과 같은 정보들이 필요합니다:
+1. **수능 성적**: 2024년 동의대학교 간호학과의 정시 모집요강을 보면, 수능 점수는 중요한 평가 요소 중 하나입니다. 하지만 단순히 국어+수학+탐구(2개) 표준 변환점수만으로 합격 가능성을 판단하기는 어렵습니다.
+2. **인성면접 성적**: 간호학과에서는 인성면접 결과도 중요한 평가 요소입니다. 이 부분에서 좋은 점수를 받는 것이 중요합니다.
+3. **모집인원 및 지원자 수**: 2024년 간호학과의 모집인원과 지원자의 수에 따라 경쟁률이 결정됩니다. 경쟁률이 높다면, 평균적인 성적보다 더 높은 점수를 받는 것이 필요할 수 있습니다.
+4. **기타 평가 요소**: 간호학과에서는 진로계획, 자발적 활동 등도 종합적으로 고려합니다.
+따라서 2.58이라는 국어+수학+탐구(2개) 표준 변환 점수가 단독으로 합격 가능성을 판단하기는 어렵습니다. 하지만 다음과 같은 조건을 만족한다면 합격 가능성은 있습니다:
+- **인성면접 성적**: 높은 인성면접 점수를 받는 것이 중요합니다.
+- **전반적인 평가**: 진로계획, 자발적 활동 등 다른 평가 요소에서도 좋은 결과를 얻어야 합니다.
+따라서 2.58이라는 점수만으로는 확실한 합격을 보장할 수 없습니다. 정확한 판단을 위해서는 동의대학교 간호학과의 최신 모집요강과 평균적인 입학 성적 등을 참고하시고, 가능하다면 면접 준비를 철저히 하시는 것이 좋습니다.
+추가적으로, 동의대학교의 공식 웹사이트나 학교 관계자에게 직접 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 전혀 반영하지 않고 있으며, 게임공학과에 대한 구체적인 정보가 아닌 일반적인 조언을 제공하고 있습니다. 원본 텍스트에서 언급된 예비 7번의 합격 가능성에 대한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 충원합격에 대한 정보와 예비 번호에 대한 언급이 없습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 핵심 내용과는 무관한 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성에 비해 플루언시 점수를 부여했습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 가지 조언을 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 없습니다. 주제와 관련된 정보가 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보나 부정확한 내용이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 질문에 대한 이해를 돕지 않습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.4909284972118139</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要查看相关的信息。根据您提供的数据表，没有直接提到“游戏学”或“游戏公学”的具体录取信息。不过，我可以提供一些一般性的建议：
+1. 查看游戏学部的招生名额和实际报名人数。
+2. 检查是否有其他条件（如面试、作品集等）会影响录取结果。
+3. 关注学校官网发布的最新通知和公告。
+根据您提供的数据表中的信息：
+- 游戏学部（Gameology Department）计划招收40名学生。
+- 有3人申请了游戏学部。
+因此，如果您的预估号码是7号，并且没有其他特殊要求或限制条件的话，理论上是有机会被录取的。但具体能否录取还需要等待学校官方的通知和最终决定。
+建议您：
+1. 关注学校官网发布的最新通知。
+2. 保持通讯畅通，以便接收学校的联系信息。
+3. 准备好可能需要提交的所有材料。
+希望这些信息对您有所帮助！如果有更多详细问题或需要进一步的帮助，请随时告诉我。</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 점수 4.16에 대한 추가 합격 가능성을 예측하기 어려운 점을 잘 설명하고 있으며, 관련된 여러 요소들을 제시하고 있습니다. 그러나 원본 텍스트에서 제공된 구체적인 평균 등급 정보는 언급되지 않았습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 추가 합격 가능성에 대한 예측을 위한 요소들을 제시하고 있습니다. 다만, 원본의 평균 등급 정보가 누락되어 있어 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 합격 가능성에 대한 정보를 제공하고 있습니다. 모든 내용이 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 잘 구성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 점수와 관련된 정보는 정확하지만, 원본 텍스트의 평균 등급 정보가 누락되어 있어 완전한 정확성에는 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.5362994993888044</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 표준점수로 보이는데, 이 점수만으로 정확한 추가합격 가능 횟수를 예측하기는 어렵습니다. 하지만 다음과 같은 요소들을 고려해보면 도움이 될 것입니다:
+1. **과목별 성적**: 수능 과목별 성적이 어떻게 되나요? 게임공학과에서는 국어, 수학, 영어 등이 중요할 것입니다.
+2. **모집인원 및 지원자 수**: 동의대학교 게임공학과의 정시 모집인원과 지원자의 수를 확인해야 합니다. 이 정보는 대학 홈페이지나 입학처에서 얻을 수 있습니다.
+3. **경쟁률**: 과목별 평균 점수와 지원자의 수에 따라 경쟁률이 달라질 수 있습니다.
+4. **전형 방식**: 정시 전형의 종류(일반학생전형, 실기/실적 등)와 각 전형의 성적이 어떻게 반영되는지 확인해야 합니다.
+5. **추가 합격 가능성**: 추가합격 가능 횟수는 모집인원과 지원자의 수에 따라 달라질 수 있습니다. 예를 들어, 10명 모집하고 200명이 지원한다면 경쟁률은 높을 것이고 추가합격 가능성도 낮아질 것입니다.
+6. **대학별 정책**: 동의대학교의 정시 전형에서 추가 합격 가능 횟수는 대학마다 다를 수 있습니다. 일부 대학에서는 1차, 2차 등 여러 차례에 걸쳐 합격자를 선발할 수 있습니다.
+따라서, 정확한 예측을 위해서는 위의 요소들을 종합적으로 고려해야 합니다. 또한, 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 가장 정확한 정보를 얻는 방법일 것입니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 최초등록자 데이터와 관련된 정보를 제공하지만, 원본 텍스트의 구체적인 수치(영어 등급 평균 2.88, 수능 4개 영역 등급 평균 3.88)를 언급하지 않고 있습니다. 또한, 충원 합격자 선발 기준에 대한 정보가 추가되었으나, 원본 텍스트의 핵심 내용을 완전히 반영하지는 못했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 충원 합격자에 대한 정보가 추가되어 원본의 맥락과 다소 어긋나는 부분이 있습니다. 특히, 최초합격 가능성에 대한 언급이 원본과 다르게 해석될 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 대한 답변으로 관련성이 높지만, 원본 텍스트의 구체적인 수치와 정보를 포함하지 않아 다소 부족한 점이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약해지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 사실을 누락하고 있어 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 일관성을 유지하고 있습니다. 그러나 원본 텍스트의 구체적인 내용과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어질 경우 혼란을 줄 수 있습니다. 전반적으로 명확한 표현이 사용되었습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.5868148244642378</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2024학년도 동일한 질문에 대해 답변 드리겠습니다.
+수능(일반학생전형)의 경우, 경영정보학과에서 정시 모집인원을 초과하여 최초합격자가 발생했을 때, 충원 합격자를 선발합니다. 이때, 충원 합격자의 기준은 다음과 같습니다:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**이 높은 순으로 선정됩니다.
+2. **영어 등급**도 고려될 수 있습니다.
+3. **수능 4개 영역 등급**도 중요한 요소로 작용할 수 있습니다.
+따라서, 정시 성적 3.75인 경우, 경쟁률이 높은 모집단위에서는 최초합격자가 되기 어렵습니다. 하지만 충원 합격자 선발 시에는 점수와 등급을 고려하여 선정될 수 있습니다.
+**주의사항:**
+- **경쟁률**: 경영정보학과의 경쟁률이 매우 높다면, 최초합격자가 되기 어렵습니다.
+- **모집인원**: 모집인원에 여유가 있다면, 충원 합격자로 선발될 가능성이 있습니다.
+따라서, 정시 성적 3.75는 경쟁률이 높은 경우 최초합격자가 되기 어렵지만, 충원 합격자로서 선발될 가능성은 있으므로, 최종 결과를 확인하기 위해서는 모집인원과 경쟁률을 고려해야 합니다.
+추가적으로, 입학전형일정에 따라 최초합격자 발표 이후 1차, 2차 충원 합격자 발표까지 홈페이지를 통해 실시되므로, 지원자는 해당 일정에 맞춰 합격 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘못 해석하고 있으며, 경영정보학과의 평균 등급에 대한 정보와 합격 가능성에 대한 명확한 설명이 부족합니다. 원본 텍스트는 4.2의 성적이 평균보다 낮다고 명시하고 있지만, 생성된 응답은 이를 무시하고 다른 정보를 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본 텍스트는 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 다른 조건을 제시하며 합격 가능성을 언급하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 원본 텍스트의 핵심 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성 부족으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하고, 원본 텍스트와의 연결이 약합니다. 여러 가지 조건을 나열하지만, 전체적으로 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트의 정보와 결론을 왜곡하고 있으며, 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 핵심 내용을 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 원본 텍스트의 주제를 벗어나 다른 정보를 제시하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 일관성이 부족하여 전체적으로 혼란스러울 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.5218582886668861</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的信息。根据提供的表格内容，我们可以参考以下几个方面来判断是否有可能成为最初始录者：
+1. **科目成绩**：您提到的“经营信息学”科目的成绩是4.2。
+2. **总分排名**：需要了解该科目在所有申请者的成绩中的排名情况。
+3. **其他科目的成绩和排名**：通常，大学会考虑多个科目的成绩来综合评估。
+根据提供的表格内容，“经营信息学”属于“经济管理类”的科目。我们需要查看具体的招生标准和要求：
+- 从“加权平均分（总分）”来看，需要达到一定的分数线。
+- 各个科目的排名也需要满足一定条件。
+假设我们有以下信息：
+- 总分排名：4.2在所有申请者中的排名情况。
+- 其他科目成绩及排名：如国语、数学等。
+如果您的“经营信息学”成绩为4.2，并且其他科目的成绩和排名也符合要求，那么理论上是有可能成为最初始录者的。但是具体能否成功还需要看具体的招生分数线和其他条件。
+建议您查看以下内容：
+- 最新的招生简章或官方网站上的详细说明。
+- 与学校联系确认具体的录取标准和流程。
+如果您能提供更多关于其他科目的成绩信息，我可以帮助进一步分析是否符合要求。</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 관련이 없으며, 제공된 정보와 일치하지 않습니다. 원본 텍스트는 경영정보학과의 평균 등급과 합격 가능성에 대한 정보를 제공하고 있지만, 생성된 응답은 다른 주제에 대한 정보를 다루고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 내용과 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 핵심 포인트와는 전혀 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 관련성 부족으로 인해 전체적인 흐름이 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제와 관련이 없기 때문에 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.4730774952990775</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个方面的信息：
+1. 经营信息学部2024年的招生计划和实际报名人数。
+2. 该专业的竞争比例（录取率）。
+3. 学生的总分及其在同专业中的排名情况。
+根据您提供的数据表，“经营信息学部”2024年的一些具体信息如下：
+- 招生名额：9
+- 报名人数：95
+- 竞争比：10.56
+从这些数据可以看出，竞争非常激烈。然而，仅凭总分（5.33）无法直接判断是否能够录取。
+通常情况下，学校会根据学生的综合成绩来决定录取名单，包括但不限于：
+- 高考总分
+- 学生的综合素质评价分数
+- 个人陈述和面试表现
+因此，虽然您的高考总分为5.33，在同专业中排名第12位（竞争比为10.56），但是否能够被录取还需要考虑其他因素。
+建议您：
+1. 访问东国大学官方网站获取最新的招生信息。
+2. 与学校招生办公室联系，了解具体的录取标准和流程。
+3. 如果可能的话，参加学校的面试或提交个人陈述等材料以增加录取机会。
+综上所述，在没有更多具体信息的情况下，仅凭高考总分5.33很难确定是否能够被东国大学经营信息学部录取。建议您进一步咨询学校招生办公室获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 3.33의 성적이 바이오응용공학부 최초등록자로 합격할 가능성이 낮다고 주장하지만, 원본 텍스트에서는 3.33의 성적이 평균보다 높아 합격 가능성이 있다고 언급하고 있습니다. 이로 인해 사실관계에 큰 차이가 발생합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 3.33의 성적이 합격 가능성이 높다고 하지만, 생성된 응답은 낮다고 주장하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 바이오응용공학부에 대한 성적과 전형 요소에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 3.33의 성적에 대한 해석이 잘못되었습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실관계와 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 차이로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 그러나 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.7662924732681951</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)에 대해 성적 3.33 정도로 최초등록자로 합격할 가능성은 낮습니다.
+다음은 이유와 참고사항입니다:
+1. **전형요소 반영비율**:
+   - 바이오응용공학부는 주로 수능성적이 반영됩니다.
+   - 2024년 모집요강에 따르면, 수능성적의 중요성이 높습니다.
+2. **수능 성적 평균 및 경쟁률**:
+   - 바이오응용공학부는 일반적으로 높은 경쟁률을 보입니다.
+   - 3.33 정도의 성적은 평균 이상이나, 매우 경쟁력 있는 수준은 아닙니다.
+3. **최초등록자 선발 기준**:
+   - 최초등록자는 주로 높은 수능성적을 가진 지원자가 선발됩니다.
+   - 3.33 정도의 성적은 일반적으로 최고 점수를 받는 학생들보다 낮습니다.
+4. **추천사항**:
+   - 다른 전형(예: 학생부교과, 학생부종합 등)을 통해 지원하는 것이 좋습니다.
+   - 수능 성적 외에 특기사항이나 활동 경력을 강조하여 자기소개서에서 유리한 포인트를 부각시킬 수 있습니다.
+결론적으로, 3.33 정도의 성적로 바이오응용공학부 최초등록자로 합격하기는 어렵습니다. 다른 전형을 통해 지원하는 것이 더 현실적일 것입니다.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보와 현재 정시 등급이 4.4라는 점을 언급하고 있지만, "좋은 성적"이라는 주장은 사실과 다릅니다. 방사선학과의 평균 등급이 3.82인 점을 고려할 때, 4.4는 평균보다 낮은 성적이라는 원래의 정보와 모순됩니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보와 상충하는 내용을 포함하고 있습니다. 방사선학과의 평균 등급보다 낮은 성적을 가지고 있다는 원래의 정보와 "좋은 성적"이라는 주장은 일관성이 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 여러 요소를 다루고 있으며, 관련된 정보들을 제공하고 있습니다. 그러나 원래의 질문에 대한 직접적인 답변이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 여러 요소를 체계적으로 나열하고 있으며, 전반적으로 논리적인 흐름을 유지하고 있습니다. 그러나 일부 정보가 원래의 질문과 직접적으로 연결되지 않아 약간의 일관성 부족이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보와 모순되는 내용을 포함하고 있어 정확성이 낮습니다. 성적이 4.4라는 점이 "좋은 성적"으로 언급되었으나, 이는 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하고 있으나, 원래의 질문과의 관련성이 떨어져 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보가 원래의 질문과 연결되지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.5338006210555466</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과에 지원하려면 몇 가지 요소를 고려해야 합니다:
+1. **성적**: 방사선학과는 일반학생전형으로 모집되며, 전형요건 중 학업역량이 중요합니다. 성적이 4.4라면 좋은 성적입니다.
+2. **모집단위**: 방사선학과는 &lt;나&gt;군 실기/실적(일반학생전형) 또는 &lt;가&gt;군 수능(일반학생전형)으로 모집될 수 있습니다. 구체적인 모집단위를 확인해야 합니다.
+3. **면접 및 서류평가**: 방사선학과는 면접이 포함되므로, 학업역량과 전공적합성에 대한 준비가 필요합니다.
+4. **전형요소 반영비율**:
+   - 실기/실적(경기실적우수자전형): 학생부교과 18% + 출결 12% + 서류(실적)70%
+   - 학생부종합: 서류 60% + 면접 40%
+5. **학업역량 및 전공적합성**: 방사선학과는 의료 분야에 관련된 전공이므로, 관련 활동이나 경험을 준비해야 합니다.
+6. **서류제출**: 학교생활기록부, 성적증명서 등이 필요합니다.
+7. **면접준비**: 면접에서는 방사선학과와 관련된 질문에 대한 답변을 미리 준비해야 합니다.
+성적이 4.4라면 좋은 기반을 가지고 있지만, 방사선학과는 경쟁률이 높은 학과이므로 추가적인 지원 자료와 면접 준비가 필요합니다. 모집단위와 전형요소를 확인하고, 관련 활동이나 경험을 강조하는 것이 중요합니다.
+추가적으로, 동의대학교 입학 홈페이지나 학부 홈페이지를 통해 최신 정보와 자세한 요구사항을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 "2.66이 평균보다 높다"는 점을 잘못 해석하여 "상대적으로 낮은 수준"이라고 언급하고 있습니다. 이로 인해 사실관계에서 일부 오류가 발생했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, "2.66이 평균보다 높다"는 원본의 주장을 반박하는 내용이 포함되어 있어 일관성이 떨어집니다. 
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 입학 전형과 관련된 여러 요소를 다루고 있어 관련성이 높지만, 원본 텍스트의 핵심 정보인 평균 등급에 대한 해석이 잘못되어 다소 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 약간 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 입학 전형에 대한 정보를 제공하지만, 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성에서 일부 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실관계와 일관성에서 문제가 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 입학 전형에 대한 적절한 의미를 전달하고 있으나, 원본 텍스트의 의미와 다소 상충하는 부분이 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.6671305807023746</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과 정시 모집에서 2.66이라는 평균 등급을 기록한 것으로 보이는데, 이는 상대적으로 낮은 수준입니다.
+방사선학과는 일반적으로 과학적 지식과 이해력이 필요하며, 해당 학과의 입학 전형에서는 과학 관련 과목 성적이 중요하게 평가됩니다. 2.66이라는 등급은 다음과 같은 점들을 고려할 때 주의해야 할 수 있습니다:
+1. **과학적 지식**: 방사선학과는 물리학, 생물학 등의 과학적 지식이 필요합니다. 이 분야에서 낮은 평균 등급은 학업 성공에 부정적인 영향을 줄 수 있습니다.
+2. **경쟁률**: 방사선학과의 경쟁률이 높기 때문에, 낮은 평균 등급으로는 입학하기가 어렵습니다. 2024년에는 5명 모집 인원에 36명 지원자가 있었으며, 이로 인해 경쟁률이 7.2:1이었습니다.
+3. **성적 분포**: 표준 편차가 낮은 것을 볼 수 있으므로, 다른 지원자들과의 성적 차이가 크지 않다는 점을 고려해야 합니다. 이는 입학 가능성에 영향을 줄 수 있습니다.
+4. **기타 평가 요소**: 서류평가와 면접 등 기타 평가 요소도 중요합니다. 학교생활기록부, 진로 탐색 활동, 면접 성과 등을 고려하면 2.66이라는 등급이 크게 부정적인 영향을 미치지 않을 수도 있습니다.
+결론적으로, 2.66이라는 평균 등급은 방사선학과 입학에 있어 위험할 수 있지만, 다른 평가 요소들이 긍정적이라면 충분히 경쟁력을 갖추고 있을 수 있습니다. 그러나 이 점수로는 확실한 합격을 보장받기 위해서는 추가적인 노력이 필요할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 평균 등급과 경쟁률에 대한 정보를 포함하고 있으며, 3.66의 성적이 평균보다 높은 점수를 반영하고 있습니다. 그러나, 응답에서 제시된 추가적인 요소들은 원본 텍스트에 명시된 정보와는 다소 차이가 있어, 완전한 일치를 보이지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가적인 요소들을 제시하면서 원본의 핵심 메시지와는 다소 다른 방향으로 나아갑니다. 특히, 합격 여부에 대한 판단을 어렵게 만드는 요소들을 강조하여 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 지원자의 성적과 관련된 여러 요소들을 고려하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나, 원본 텍스트의 핵심 메시지와는 다소 다른 방향으로 전개되어 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일치하지만, 추가적인 요소들이 포함되어 있어 정확성에서 약간의 차이가 있습니다. 원본의 정보에 대한 해석이 다소 다르게 나타나고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 의미를 전달하고 있습니다. 다만, 일부 추가적인 정보가 원본의 맥락과는 다소 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 복잡한 요소들이 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.5634670941169796</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3.66의 평균 등급을 가진 지원자가 경찰행정학과 농어촌 전형에 합격하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **모집인원 및 지원자 수**: 현재 모집인원과 지원자의 수에 따라 경쟁률이 결정됩니다.
+2. **전형요소**: 이 전형은 주로 학교생활기록부와 교과성적을 기반으로 평가합니다. 따라서 3.66의 등급은 좋은 점수지만, 다른 요인들도 고려되어야 합니다.
+3. **학생부 및 활동**: 학생부에서 보여주는 성장과정, 활동, 특기사항 등을 잘 반영해야 합니다. 이는 입학사정관들이 지원자를 평가할 때 중요한 부분입니다.
+4. **등급 평균과 표준편차**: 전형요소 중 학교생활기록부와 교과성적을 기반으로 하는 평균 등급과 표준편차를 확인해야 합니다. 이 값이 3.66보다 높다면, 경쟁률이 높아질 수 있습니다.
+5. **등급 변환표**: 한의예과의 경우 탐구 영역은 백분위에 따른 변환표준점수를 반영하므로, 이 점수도 고려해야 합니다.
+6. **기타 요인**: 입학사정관들의 주관적인 평가와 지원자의 전반적인 적합성도 중요한 요소입니다.
+따라서 3.66의 등급만으로는 확실한 합격 여부를 판단하기 어렵습니다. 모집인원, 경쟁률, 기타 평가 기준 등을 고려하여 최종 결정을 내리시길 바랍니다. 만약 가능하다면, 동의대학교 입학관리 홈페이지나 전화로 상세 문의를 하시는 것이 좋겠습니다.
+추가적으로, 지원자의 성적 외에도 학생부에서 보여주는 활동과 특기사항 등을 잘 준비하고, 면접에서도 자신감 있게 대응하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 예비 25번의 의미와 관련된 정보를 잘 설명하고 있으며, 예비후보 순위에 대한 설명도 적절합니다. 그러나 원문에서 언급된 특정 학과 목록에 대한 언급이 없으므로, 완전한 사실성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 예비후보 순위에 대한 정보를 제공합니다. 다만, 원문에서 제시된 특정 학과에 대한 언급이 없기 때문에 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문의 주제와 관련이 깊으며, 예비 25번의 합격 가능성에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 예비후보 순위와 관련된 정보를 정확하게 전달하고 있지만, 원문에서 제공된 특정 학과 목록을 포함하지 않아 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 차원에서 잘 수행하고 있으나, 특정 학과 목록의 부재로 인해 약간의 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 질문의 맥락에 적절하게 대응하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.465961475531446</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25위라는 순위가 예비후보 순위에 해당하는 것으로 보입니다. 예비후보 순위는 정시 모집인원보다 많은 지원자가 접수를 했을 때, 그 중에서 선발 인원이 부족한 경우 추가로 합격자를 선발하기 위해 설정된 순위입니다.
+정시 일반학생 전형의 경우, 최종합격자와 충원합격자의 발표가 이루어지며, 이 과정에서 예비후보 순위를 참조하여 합격자가 결정됩니다. 따라서 25위라는 위치는 아직 확실한 합격이 아닙니다.
+하지만, 다음과 같은 요인들을 고려하면 합격 가능성은 있습니다:
+1. **모집 인원과 지원자 수**: 정시 모집인원보다 많은 지원자가 접수를 했을 경우, 예비후보 순위가 의미가 있을 수 있습니다.
+2. **경쟁률**: 현재의 경쟁률이 어느 정도인지 확인해야 합니다. 경쟁률이 높다면 25위는 낮은 위치일 수 있지만, 경쟁률이 낮다면 더 높은 위치일 수도 있습니다.
+3. **학과 특성**: 일부 학과에서는 예비후보 순위를 참조하여 충원합격자를 선발하기도 합니다.
+따라서, 현재의 정보만으로는 확실한 답변을 드리기 어렵습니다. 최종 결과가 발표될 때까지 기다리는 것이 가장 좋습니다. 또한, 학교 입학처나 관련 홈페이지를 통해 추가적인 정보를 확인하는 것도 도움이 될 수 있습니다.
+추가로, 지원자의 성적과 전형요소 등 다양한 요인들이 합격 여부에 영향을 미치므로, 최선의 준비와 노력은 필수입니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부의 존재를 언급하고 있으나, 원본 텍스트에서는 해당 학부가 존재하지 않는다고 명시하고 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 법경찰행정학부에 대한 정보가 포함되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 동의대학교의 정시모집에 대한 정보를 제공하고 있으나, 법경찰행정학부에 대한 잘못된 정보가 포함되어 있어 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 법경찰행정학부에 대한 잘못된 정보로 인해 전체적인 일관성이 약간 저하되었습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 특히 법경찰행정학부의 존재에 대한 잘못된 정보가 문제입니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 맥락과 다소 어긋나는 내용을 포함하고 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 전반적으로 이해하기 쉬운 내용이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.7018728959343066</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학부의 정시모집에 대해 정확한 합격 기준을 예측하기는 어렵습니다. 하지만, 일반적으로 다음과 같은 요소들을 고려할 수 있습니다:
+1. **최근 몇 년간의 입학성적 분석**:
+   - 2023년도 법경찰행정학부의 정시모집 합격자들의 평균 성적을 확인해보세요.
+   - 예를 들어, 국어: 95점 이상, 수학: 85점 이상, 영어: 75점 이상 등이 일반적인 안정권 점수대일 수 있습니다.
+2. **전형별 합격 기준**:
+   - 정시모집은 전형별로 성적이 다를 수 있으므로, 해당 학부의 정시 모집요강을 꼭 확인하세요.
+   - 예를 들어, &lt;가&gt;군과 &lt;나&gt;군의 합격기준이 다르다면 각각의 점수대를 따져보세요.
+3. **경쟁률**:
+   - 법경찰행정학부의 모집인원과 지원 인원을 비교하여 경쟁률을 파악하세요.
+   - 경쟁률이 높으면 더 높은 성적을 요구할 수 있습니다.
+4. **추천서나 면접 등 추가요소**:
+   - 일부 학부에서는 추천서나 면접 등을 통해 합격자를 선발하기도 합니다.
+   - 이 경우, 이러한 요소들도 고려해야 합니다.
+5. **예상 점수대**:
+   - 현재까지의 성적을 바탕으로 예상을 해볼 수 있습니다.
+   - 예를 들어, 국어: 90점 이상, 수학: 80점 이상, 영어: 70점 이상 등이 안정적인 합격 기준일 수 있습니다.
+6. **추천**:
+   - 정확한 점수는 입학처나 동의대학교 홈페이지를 통해 확인하는 것이 가장 정확합니다.
+   - 또한, 동의대학교 입학상담실이나 학부 관계자에게 직접 문의해보시는 것도 도움이 될 수 있습니다.
+결론적으로, 2024년도 법경찰행정학부에 정시로 들어갈려면 현재까지의 성적을 바탕으로 예상을 해볼 수 있지만, 최종적인 합격 기준은 동의대학교 입학처에서 공식 발표하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 아동학과의 평균 등급과 관련된 정보를 제공하고 있으며, 5.33의 정시 등급이 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나 모집 인원과 지원 인원에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 보육가정상담학과와 아동학과의 구분에 대한 정보가 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트는 아동학과에 대한 정보만을 제공하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 제공하고 있으며, 아동학과의 합격 가능성에 대한 논의가 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 수식 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 원본 텍스트와의 연결이 약간 느슨해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 5.33의 정시 등급이 합격 가능성이 높다는 점을 정확하게 언급하고 있지만, 모집 인원과 지원 인원에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 정보를 제공합니다. 그러나 일부 추가 정보가 원본 텍스트와의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 다만, 일부 수식 표현이 복잡할 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.5219617069775542</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과의 모집인원과 지원자 수를 확인해보겠습니다.
+보육가정상담학과는 아동학과로 분리되었습니다. 따라서, 관련 정보를 찾아보면:
+- **모집 인원**: 40명
+- **지원 인원**: 13명 (2024년 합격자 표에서 확인 가능)
+경쟁률은 다음과 같습니다:
+\[ \text{경쟁률} = \frac{\text{지원 인원}}{\text{모집 인원}} = \frac{13}{40} = 0.325 \]
+이 경쟁률을 고려할 때, 등급이 5.33인 지원자가 합격 가능성은 높습니다. 그러나 최종 합격 여부는 여러 요소에 따라 결정되므로 다음과 같은 점들을 주의해야 합니다:
+1. **등급 평균**: 5.33이라는 등급은 매우 높은 수준입니다.
+2. **전형 방식**: 동의대학교에서는 학생부 종합 전형을 실시하며, 이는 단순히 등급만으로 결정되는 것이 아니라 다양한 요소를 고려합니다.
+3. **기타 평가 요인**: 면접 결과, 추천서, 자기소개서 등의 성적도 중요한 역할을 합니다.
+따라서, 5.33의 등급은 매우 유리한 위치에 있지만, 최종 합격 여부는 전반적인 평가에서 결정됩니다. 지원자의 전체 성적과 기타 평가 요인들을 고려하여 최종 판단이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 잘 반영하고 있으며, 예비 12번을 받은 경우의 가능성에 대한 설명도 적절합니다. 그러나 "좋은 신호일 수 있다"는 표현은 다소 주관적이며, 명확한 사실로 보기는 어렵습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 예비 번호와 관련된 가능성에 대한 설명이 잘 연결되어 있습니다. 다만, 일부 추가적인 정보가 포함되어 있어 약간의 일관성 저하가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 예비 번호와 충원 합격에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 추가되어 있어 약간의 일관성 저하가 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 예비 번호와 관련된 가능성에 대한 설명도 적절합니다. 그러나 "좋은 신호일 수 있다"는 표현은 다소 주관적입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 주관적인 표현이 포함되어 있어 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 예비 번호와 관련된 가능성을 적절히 설명하고 있습니다. 그러나 일부 주관적인 표현이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 이해도 저하가 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.7746425774754534</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 충원합격자 발표 시점이 2월 중순으로 알려져 있습니다. 예비 12번을 받은 것은 좋은 신호일 수 있지만, 최종 합격 가능성에 대해 확신하기 위해서는 다음과 같은 점들을 고려해야 합니다:
+1. **경쟁률**: 충원합격자 발표 시점까지 많은 지원자가 등록할 가능성이 있으므로 경쟁률이 높을 수 있습니다.
+2. **성적 및 평가 결과**: 동의대학교에서는 면접평가와 서류평가를 통해 학생들을 평가합니다. 예비 12번을 받은 것이면, 이전 단계에서 좋은 성적이나 평가를 받았다는 것을 의미하므로 이 부분도 고려해야 합니다.
+3. **합격 기준**: 동점자 처리기준에 따라 면접고사 성적이 상위자 또는 서류평가 성적이 상위자로 선정될 가능성이 있습니다.
+4. **결과 발표 일정**: 2월 중순까지 결과가 발표되므로, 이 시점에서 최종 합격 여부를 확인할 수 있습니다.
+따라서 예비 12번을 받았다는 것은 좋은 기회이지만, 최종 합격 가능성은 불확실합니다. 정확한 정보는 동의대학교 입학관리팀이나 공식 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 점수가 높은 점수라고 언급하고 있지만, 유아교육학과에 지원하기 어려울 것이라는 원본 텍스트의 주장을 충분히 반영하지 못하고 있습니다. 유아교육학과의 평균 성적이 4.18이라는 사실을 간과하고, 다른 평가 요소들에 대한 설명이 추가되었으나, 원본의 핵심 정보와는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 평가 요소를 추가로 설명하고 있지만, 원본 텍스트에서 제시된 4.75의 성적이 유아교육학과에 지원하기 어려운 점을 명확히 반영하지 않고 있습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 관련된 내용을 다루고 있으나, 원본 텍스트의 핵심 주제인 4.75 성적의 지원 가능성에 대한 명확한 답변이 부족합니다. 그럼에도 불구하고 관련된 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 주제와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 4.75 성적이 유아교육학과에 입학할 가능성이 높다고 주장하지만, 원본 텍스트의 정보와는 상충되는 부분이 있습니다. 원본에서는 4.75 성적이 유아교육학과에 지원하기 어려울 것이라고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트의 핵심 사실과 일치하지 않는 부분이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 설명이 적절하고 관련성이 있지만, 원본의 맥락과는 다소 차이가 있습니다. 그러나 전반적으로 의미는 적절하게 전달되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 원본 텍스트의 핵심 주제와의 연결이 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.672554548589963</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 한국의 대다수 고등학교에서는 국어, 수학, 영어 등 주요 과목에서 4.0 이상을 받기 쉽지 않습니다. 이 점수로는 대부분의 대학과 전공에 충분한 성적을 보여줄 수 있을 것입니다.
+유아교육학과의 경우, 수능 성적이 높더라도 학생부와 면접 등 다른 평가 요소들도 중요하게 고려됩니다. 유아교육학과는 교육 분야에서의 인성과 역량이 매우 중요한 전공 중 하나입니다. 따라서 다음과 같은 점들을 고려해야 합니다:
+1. **학생부 성적**: 수능 외에도 고등학교 시절의 학업 성적이 중요합니다.
+2. **면접 및 실기**: 유아교육학과는 교사로서의 역량을 평가하기 위해 면접이나 실기 시험도 진행됩니다.
+3. **추천서 및 자기소개서**: 이들 문서에서 지원자의 적성과 열정을 잘 보여줄 수 있어야 합니다.
+4.75라는 점수로는 유아교육학과에 충분히 입학할 가능성이 높습니다만, 최종 결정은 학교의 전형 방식과 평가 기준에 따라 다를 수 있습니다. 따라서:
+- **학생부 성적**: 고등학교 시절의 성적이 좋다면 이점이 유리합니다.
+- **면접 및 실기**: 충분히 준비하고 자신감 있게 대응해야 합니다.
+- **추천서 및 자기소개서**: 진심어린 내용과 자신의 적성, 열정을 잘 표현해야 합니다.
+결론적으로 4.75라는 점수로는 유아교육학과에 입학하기 어렵지 않을 것입니다. 다만, 학교마다의 평가 기준이 다르므로 최종 결정은 해당 대학에서 내릴 것입니다.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 평균 등급과 관련된 정보를 제공하며, 환산등급 4.16이 좋은 성적이라는 점을 언급하고 있습니다. 그러나 최종 합격 여부는 여러 요소에 따라 달라질 수 있다는 점을 강조하고 있어, 일부 정보가 추가되었지만 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 추가적인 고려사항을 제시하고 있습니다. 다만, 원본 텍스트의 특정 수치나 평균 등급에 대한 언급이 없기 때문에 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 지원자의 합격 가능성에 대한 여러 요소를 고려하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 따라서 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 정확한 내용을 전달하고 있지만, 추가적인 요소에 대한 설명이 포함되어 있어 약간의 정확성 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받을 수 있습니다. 그러나 일부 요소에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.5675584224008956</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(현 아동학과)에 지원하실 경우, 환산등급 4.16은 좋은 성적입니다만, 최종 합격 여부는 여러 요소에 따라 결정됩니다.
+아래 몇 가지를 고려해보세요:
+1. **모집인원**: 보육가정상담학과(현 아동학과)의 모집인원을 확인해야 합니다. 현재 표에서는 해당 정보가 제공되지 않았으므로, 동의대학교 입학 홈페이지나 공지사항을 통해 최신 정보를 확인하세요.
+2. **경쟁률**: 이전 연도와 비교하여 경쟁률이 어느 정도인지 파악해야 합니다. 경쟁률이 높다면 4.16 등급으로 합격하기는 어렵겠지만, 낮다면 가능성이 있습니다.
+3. **등급 평균**: 전 모집단위의 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사교과 석차등급 평균을 확인하세요. 이 정보는 동일한 학년에서 지원자들의 등급 분포를 보여줍니다.
+4. **전형요소 반영비율**: 정시 모집의 경우 수능 성적이 주요 평가 요인입니다. 현재 표에서는 전형요소 반영비율이 제공되지 않았으므로, 동의대학교 입학 홈페이지에서 최신 정보를 확인하세요.
+5. **최종 합격선**: 이전 연도의 최종 합격선을 참조하면 도움이 될 수 있습니다. 이 정보는 동의대학교 입학 홈페이지나 공지사항을 통해 얻을 수 있습니다.
+6. **개인 경쟁력**: 개인의 전공적합성, 학업역량 등 서류평가 영역에서 좋은 평가를 받았다면 더 높은 가능성이 있습니다.
+결론적으로, 환산등급 4.16로 보육가정상담학과(현 아동학과)에 지원한다면 합격 가능성이 있지만, 최종 결과는 모집인원, 경쟁률, 전형요소 반영비율 등 여러 요소에 따라 결정됩니다. 따라서 최신 정보를 확인하고, 가능한 한 많은 준비를 하는 것이 중요합니다.
+추가적으로, 동의대학교 입학 홈페이지나 학교 관계자에게 직접 문의하는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 모집된다고 주장하고 있지만, 원문에서는 정시로 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 일치하지 않으며, 심각한 오류가 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문이 정시 지원이 불가능하다고 명시한 반면, 생성된 응답은 정시 모집에 대한 정보를 포함하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문 질문과 관련된 정보(정시 지원 여부)에 대한 답변을 제공하지 않고, 오히려 정시 모집에 대한 상세한 정보를 제공하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족하여 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 완전히 상반되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 원문에서의 주장을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부적절함으로 인해 혼란을 초래할 수 있습니다. 원문과의 불일치로 인해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.4306131757380247</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어융합학과는 정시모집에서 나군(일반학생전형)으로 모집됩니다. 
+- **나군(일반학생전형)**에서는 국어, 수학, 영어, 탐구 중 상위 3개 영역을 반영하며, 이들 영역의 표준점수와 등급 점수를 합산하여 평균 점수를 산출합니다.
+- **성적 산출 예시**에 따르면, 국어 104점, 수학(미적분) 108점, 영어 4등급, 과탐(물리Ⅰ) 47점, 과탐(화학Ⅰ) 59점의 성적이 있다고 가정할 때, 이는 다음과 같이 평균 점수가 산출됩니다:
+  - 국어 표준점수: 104
+  - 수학 표준점수: 108
+  - 영어 등급점수: 115 (영어 4등급에 해당하는 점수)
+  - 탐구 표준점수: (47 + 59) / 2 = 53
+  **합산 평균 점수**: (104 + 108 + 115 + 53) / 4 = 96.75
+따라서, 소프트웨어융합학과에 정시로 들어가기 위해서는 이와 비슷한 수준의 성적을 받아야 합니다. 실제 합격선은 매년 변동되므로, 최신 입학성적 분석 자료를 확인하여 더 정확한 정보를 얻는 것이 좋습니다.
+추가적으로, 동의대학교의 경우 **수능 반영 영역 및 가산점**에 따라 수학(미적분 또는 기하) 응시자의 경우 수학 표준점수에 10% 가산점을 받을 수 있으므로, 이 점도 고려해야 합니다.
+따라서, 대략적으로 **4등급 이상의 영어 성적과 108점 이상의 수학(미적분) 성적**이 필요할 것으로 예상됩니다. 하지만 정확한 합격 기준은 입학성적 분석 자료를 참고해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 소스 텍스트의 주요 내용을 다루고 있지만, "나군 학생부종합(조기취업형계약학과전형)"이라는 특정 전형에 대한 언급이 소스 텍스트에 포함되어 있지 않으며, 이로 인해 일부 정보가 왜곡되거나 추가된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 소스 텍스트의 내용과 일부 일치하지만, 특정 전형에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 또한, 세부적인 내용이 추가되어 소스 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 소스 텍스트의 주제와 관련이 있지만, 특정 전형에 대한 정보가 추가되어 있어 약간의 관련성이 떨어질 수 있습니다. 그러나 전반적으로 주제와 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 소스 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 소스 텍스트의 정보를 바탕으로 하고 있지만, 특정 전형에 대한 언급이 추가되어 있어 정확성이 떨어질 수 있습니다. 또한, 세부적인 내용이 소스 텍스트에 명시되어 있지 않으므로 정확성에 의문이 생깁니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 소스 텍스트와의 일관성 및 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 주제와 관련된 내용을 잘 전달하고 있습니다. 그러나 특정 전형에 대한 언급이 추가되어 있어 약간의 부적절함이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.545399006050431</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 나군 학생부종합(조기취업형계약학과전형) - 정원외의 경우, 서류 평가와 면접 평가가 중요하게 고려됩니다. 특히 세특 내용은 중요한 평가 기준 중 하나로, 지원자의 실질적인 능력과 적합성을 판단하는 데 큰 영향을 미칩니다.
+1. **세특 내용의 중요성**:
+   - **공동체역량**: 협업능력, 배려심 등 공동체 목표를 위한 태도와 행동.
+   - **학업역량**: 학업에 대한 흥미와 주도적 노력, 성취정도 등을 평가합니다.
+   - **전공적합성**: 지원 전공(계열) 관련 활동과 경험, 학업의지를 평가합니다.
+2. **서류 준비**:
+   - **학교생활기록부**: 이는 세특 내용을 포함하고 있어 중요합니다. 특히 창의적 체험활동, 교과학습발달상황(세부능력 및 특기사항), 행동특성 및 종합의견 등이 잘 기재되어야 합니다.
+   - **학교생활기록부 작성 유의사항**:
+     - 학생 개인의 노력과 교사의 평가를 명확히 기재해야 합니다.
+     - 학교폭력 관련 내용은 반드시 확인하고, 필요시 감점 또는 불합격 처리될 수 있습니다.
+3. **면접 준비**:
+   - 면접에서는 서류평가 시 작성된 면접질문지를 활용하여 제출서류 진위여부를 검증받을 수 있으므로, 세특 내용과 관련된 답변을 잘 준비해야 합니다.
+   - 지원동기와 학업계획, 학업역량 및 전공적합성에 대한 공통문항을 잘 준비하고, 실제 경험과 노력에 근거한 답변을 제공해야 합니다.
+따라서, 세특 내용은 면접 점수보다도 중요한 평가 기준 중 하나로, 지원자들은 이 부분을 철저히 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 소프트웨어공학부의 2024학년도 수능 최초합격자 평균 등급에 대한 정보를 포함하고 있지만, 구체적인 수치나 기준에 대한 정보가 부족하여 일부 사실이 누락되었습니다. 
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일부 일치하지만, 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 특히, 수능 점수와 학생부 성적을 종합적으로 평가한다는 점은 원본 텍스트에서 언급되지 않았습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 세부사항이 포함되어 있어 약간의 주제 이탈이 발생했습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되었고, 읽기에도 무리가 없습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실을 완전히 반영하지 못하고 있습니다. 특히, 수능 점수와 관련된 구체적인 기준이 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으며, 일부 강점과 약점이 혼재되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가적인 정보가 포함되어 있어 약간의 맥락 이탈이 발생할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.8084935438163706</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부의 경우, 정시 모집에서는 수능 점수와 학생부 교과 성적을 종합적으로 평가합니다. 특히, 최초합격자 발표에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 중요한 기준 중 하나입니다.
+주요 정보를 바탕으로 다음과 같은 답변을 드릴 수 있습니다:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+   - 예시 데이터에서 소프트웨어공학부의 최초합격자들의 평균 점수가 330.11 이상입니다.
+   - 동일한 모집단위에서 다른 학과의 경우, 평균 점수가 286.44~325.15 사이로 다양합니다.
+2. **영어 등급**:
+   - 예시 데이터에서는 영어 등급이 3.77~4.92 사이입니다.
+   - 동일한 모집단위에서 다른 학과의 경우, 평균 점수가 3.00~4.53 사이로 다양합니다.
+3. **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**:
+   - 예시 데이터에서는 이 값이 413.21~453.83 사이입니다.
+   - 동일한 모집단위에서 다른 학과의 경우, 평균 점수가 306.69~330.11 사이로 다양합니다.
+따라서, 정시 성적이 4.08인 경우, 이는 영어 등급에 해당하는 점수일 가능성이 높습니다. 그러나 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 중요하므로, 이를 확인해야 합니다.
+**결론**: 정시 성적이 4.08이라면, 이는 영어 등급에 해당하는 점수일 가능성이 높습니다. 그러나 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수가 중요하므로, 이를 확인해야 합니다. 만약 이 값이 330.11 이상이라면, 최초합격자로 선발될 가능성이 있습니다.
+만약 정확한 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수가 알려지지 않았다면, 해당 정보를 확인해야 합니다. 또한, 동의대학교 입학 홈페이지나 관련 공고를 통해 최신 정보를 확인하시기 바랍니다.
+더 자세한 정보는 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 서류와 면접의 반영 비율을 잘못 제시하고 있습니다. 원본 텍스트에서는 서류 60%와 면접 40%로 명시되어 있는데, 생성된 응답에서는 서류 70%와 면접 30%로 잘못 기재되어 있습니다. 또한, 평균 5등급으로 지원 가능하다는 주장은 원본 텍스트의 정보와 일치하지 않으며, 정확한 합격 가능성을 확인하기 위해서는 추가적인 정보가 필요하다는 점이 누락되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 합격 등급 정보가 포함되어 있지 않다고 명시하고 있지만, 생성된 응답은 평균 5등급으로 지원 가능하다고 주장하고 있습니다. 이는 서로 상충하는 정보입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 신뢰성이 떨어집니다. 지원 가능성에 대한 논의는 관련성이 있지만, 잘못된 비율 정보로 인해 전체적인 관련성이 약해집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 정보가 서로 연결되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 약해집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히 전형요소 반영 비율과 합격 가능성에 대한 정보가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.5577186981678636</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 소프트웨어융합학과의 경우, 전형요소 반영비율은 다음과 같습니다:
+- **서류**: 70%
+- **면접**: 30%
+전형요소 중 학생부 교과성적은 주요한 부분을 차지하므로, 평균 5등급으로는 충분히 지원 가능할 수 있습니다. 그러나 정확한 확률을 예측하기 위해서는 다음과 같은 요인들을 고려해야 합니다:
+1. **전체 지원자들의 성적 분포**: 다른 지원자의 성적이 어떻게 분포되어 있는지 확인해야 합니다.
+2. **모집 인원과 지원 인원의 비율**: 경쟁률이 높다면, 평균 5등급으로는 낮은 확률일 수 있습니다.
+3. **면접 성적**: 면접에서도 좋은 점수를 받을 경우 유리합니다.
+따라서, 평균 5등급으로 지원 가능하지만, 경쟁률과 지원자의 전체 성적 분포 등을 고려하여 결정하는 것이 좋습니다. 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 지원자의 성적이 신소재공학과의 평균 등급보다 낮다고 언급하고 있지만, 원본 텍스트에서는 지원자의 성적이 평균보다 높다고 명시되어 있습니다. 이로 인해 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본에서는 지원자의 성적이 평균보다 높다고 했으나, 생성된 응답에서는 상대적으로 낮다고 평가하고 있습니다. 이로 인해 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 지원자의 성적과 관련된 다양한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 다소 벗어난 부분이 있습니다. 그러나 여전히 관련성이 높다고 평가할 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성 점수가 낮습니다. 지원자의 성적에 대한 평가가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질을 고려할 때, 생성된 응답은 일부 강점을 가지고 있지만, 사실성과 일관성에서 큰 문제를 안고 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 다만, 일부 내용이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.5907960064216941</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 진학할 가능성을 평가해보겠습니다.
+1. **모집 인원 및 지원 인원**: 
+   - 모집 인원: 56명
+   - 지원 인원: 81명
+2. **경쟁률**:
+   경쟁률은 1.45입니다 (지원 인원 / 모집 인원 = 81 / 56 ≈ 1.45).
+3. **성적 분포**:
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+   - 영어 등급: 평균 5.06, 표준 편차 1.22
+   - 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+4. **성적 평가**:
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균은 271.64이고, 지원자의 성적이 377.52보다 낮습니다 (377.52는 표준 변환 점수 합의 최고점).
+   - 영어 등급의 평균은 5.06이며, 지원자의 성적 4.28은 이보다 낮습니다.
+   - 수능 4개 영역 표준 변환 점수 합의 평균은 378.15이고, 지원자의 성적이 395.58보다 낮습니다.
+이러한 분석을 바탕으로, 지원자의 성적은 신소재공학과의 경쟁률과 비교했을 때 상대적으로 낮습니다. 그러나 동의대학교는 다양한 학생들을 수용하기 위해 여러 평가 기준을 고려합니다. 따라서 다음과 같은 요인들이 결정적인 역할을 할 수 있습니다:
+- **학생부 및 면접 성적**: 지원자의 학생부와 면접 성적이 뛰어나다면, 경쟁률이 낮아진다는 점에서 유리해질 수 있습니다.
+- **특기사항 및 활동**: 특기사항이나 관련 활동 경험 등이 있다면 이는 긍정적으로 작용할 수 있습니다.
+결론적으로, 지원자의 성적만으로는 신소재공학과에 진학하기 어렵다고 볼 수 있지만, 학생부와 면접 성적이 뛰어나다면 가능성을 열어두어야 합니다. 최종 결정은 입학사정관의 심사를 통해 이루어질 것입니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 그러나 일부 모집단위에서 자기소개서가 필요할 수 있다는 추가 정보는 정확하지만, 원문에서 명시된 내용과는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 일부 모집단위에서 자기소개서가 필요할 수 있다는 내용은 원문에서 언급되지 않았습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높습니다. 자기소개서의 필요 여부에 대한 정보를 명확하게 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장이 다소 길어져서 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하고 있지만, 일부 모집단위에서 자기소개서가 필요할 수 있다는 내용은 원문에 명시되어 있지 않아 정확성에 약간의 의문이 생깁니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 제공합니다. 그러나 일부 추가 정보는 원문과의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 일부 문장이 길어져서 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.6688085367637332</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 수능(일반학생전형)에서는 자기소개서를 요구하지 않습니다. 수능 일반학생전형은 주로 수능 성적과 실기/실적을 기준으로 합격자를 선발합니다.
+다만, 일부 모집단위에서 자기소개서가 필요할 수 있으므로, 해당 모집단위의 공지사항이나 전형요강을 확인해보시는 것이 좋습니다. 특히, 예술디자인체육대학의 레저스포츠학과와 태권도학과 같은 실기전형에서는 자기소개서가 필요할 수 있습니다.
+만약 특정 모집단위에 지원하실 경우, 해당 모집단위의 전형요강을 다시 한 번 확인하시고, 필요하다면 자기소개서를 작성해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 관련된 여러 요인을 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에서 강조된 각 학과의 평균 등급과 표준 편차에 대한 구체적인 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 일관되며, 수능 점수와 관련된 다양한 요소를 설명하고 있습니다. 그러나 일부 세부 사항이 원본 텍스트와 다소 다르게 표현되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 입학 가능성에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 일부 항목 간의 연결이 다소 약해 보일 수 있습니다. 전반적으로는 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 관련된 여러 요소를 정확하게 설명하고 있지만, 원본 텍스트의 특정 세부 사항(예: 평균 등급)과 비교할 때 약간의 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성이 높습니다. 그러나 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.6305278573061247</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4.5라는 표준점수가 주어졌을 때, 입학 가능 여부는 여러 요인에 따라 결정됩니다:
+1. 모집단위별 최저합격선: 각 모집단위마다 정해진 최저합격선이 있습니다. 이 점수를 넘어야 합니다.
+2. 모집정원과 지원자 수: 모집정원이 많고 지원자가 적으면 더 높은 점수가 필요하지 않을 수도 있습니다.
+3. 전형별 특성: 일부 전형에서는 수능 성적이 아닌 다른 요인(예: 실기, 면접 등)에 따라 결정될 수 있습니다.
+4. 추가모집 여부: 추가모집이 열렸다면 더 많은 지원자가 합격할 가능성이 있습니다.
+5. 경쟁률: 현재의 경쟁률을 고려해야 합니다.
+추가 정보를 얻으시려면:
+- 동의대학교 입학 홈페이지를 확인해보세요.
+- 해당 모집단위의 최저합격선을 확인하세요.
+- 추가모집 여부와 일정을 확인하세요.
+또한, 수능 점수 외에도 학생부 등 다른 평가 요소도 고려되기 때문에, 단순히 수능 점수만으로는 확답하기 어렵습니다. 최신 정보를 확인하고 전문가의 조언을 구하는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 모집 요강에 대한 정보를 제공하고 있으며, 수능 등급 기준에 대한 설명이 포함되어 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급 정보(영어 5.06, 수능 4개 영역 5.78)에 대한 언급이 없으므로, 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 입학 기준에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급 정보와는 일치하지 않습니다. 따라서 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 신소재공학과의 입학 요건에 대한 질문에 직접적으로 관련된 정보를 제공하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되면 더 명확해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 입학 기준에 대한 정확한 정보를 제공하고 있지만, 원본 텍스트의 평균 등급 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 사실이 누락되어 있어 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 의미가 잘 전달됩니다. 다만, 원본의 특정 사실이 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 더 명확한 설명이 추가되면 이해도가 높아질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.5899657658634663</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 신소재공학과(신소재공학과, 고분자나노공학과)의 모집요강을 보면, 해당 학과는 정시모집군 &lt;가&gt;에 속해 있습니다. 
+&lt;가&gt;군의 경우, 2024년 수능 등급 기준으로는 제1차전형에서 국어, 수학, 영어, 과학(화학/물리) 중 3개 과목이 제시되며, 이 중 최소 2개 이상을 B등급 이상으로 보유해야 합니다.
+따라서 동의대학교 신소재공학과는 정시 모집에서 국어, 수학, 영어, 과학(화학/물리) 등 4개 영역 중 최소 2개 이상을 B등급 이상으로 가진 지원자가 합격 가능할 것으로 예상됩니다.
+하지만 이는 일반적인 추정이며, 실제 경쟁률과 모집인원, 지원자들의 성적 분포 등을 고려해야 정확한 등급 예측이 가능합니다. 따라서 최종 합격 가능성은 2024년 수능 결과와 지원자의 전체 성적을 바탕으로 판단해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수인 378.15점을 언급하지 않고, 447점보다 약간 높았던 경우는 희박하다고 언급하고 있습니다. 이는 사실과 일치하지만, 원문에서 제공된 구체적인 수치가 누락되어 있습니다. 따라서, 사실성 점수는 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일관된 정보를 제공하지만, 원문에서 제시된 평균 점수와 관련된 구체적인 수치가 누락되어 있어 일관성이 떨어집니다. 또한, "희박한 가능성"이라는 표현은 원문에서의 긍정적인 가능성과 상충할 수 있습니다. 따라서, 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대한 직접적인 답변을 제공하며, 관련된 요인들을 고려하고 있습니다. 따라서, 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다. 따라서, 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 관련되는지를 설명하고 있습니다. 그러나 일부 문장이 길어져서 흐름이 약간 끊길 수 있습니다. 따라서, 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 구체적인 수치가 누락되어 있어 정확성 점수는 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 일부 정보의 누락으로 인해 완벽하지는 않습니다. 따라서, 다차원 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있지만, 일부 표현이 원문의 긍정적인 뉘앙스를 약간 약화시키고 있습니다. 따라서, 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다. 따라서, 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.6145935580431523</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 표준점수를 환산한 결과 447점으로 계산되었다면, 작년에 신소재공학과의 최종 평균 점수가 447점보다 약간 높았던 경우는 매우 희박하지만 여전히 가능합니다. 그러나 다음과 같은 요인들을 고려해야 합니다:
+1. **표준점수 변동**: 표준점수는 연도별로 변동이 있을 수 있으며, 작년과 올해의 표준화 과정에서 약간의 차이가 발생할 수 있습니다.
+2. **모집 인원 및 지원자 수**: 작년과 올해의 모집 인원이나 지원자 수가 다르다면, 평균 점수가 달라질 수 있습니다.
+3. **등급 변동**: 작년과 올해의 등급 분포가 다르면, 같은 표준점수라도 등급이 달라질 수 있습니다.
+4. **가산점 영향**: 일부 과목에서는 가산점을 받을 수도 있으므로, 이 점수 차이도 고려해야 합니다.
+5. **학과 특성**: 신소재공학과는 일반적으로 높은 수능 점수가 요구되는 학과로 알려져 있습니다. 따라서 작년에도 상대적으로 높은 평균 점수가 나왔을 가능성이 큽니다.
+이러한 요인들을 종합적으로 고려하면, 447점으로 환산된 표준점수와 작년 신소재공학과의 최종 평균 점수가 약간 차이가 나는 것은 가능하지만, 매우 극히 드문 경우일 것입니다. 
+결론적으로, 이는 가능한 상황이나 희박한 가능성에 속합니다. 하지만 정확한 예측은 작년 데이터와 올해의 모집 상황을 더 자세히 분석해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 신소재공학부의 평균 성적과 관련된 정보를 제공하고 있으며, 지원자의 성적에 대한 평가도 적절하게 이루어졌습니다. 그러나 "현재로서는 4.1~4.2 정도의 점수로 신소재공학부에 붙을 확률은 낮다"는 부분은 원문에서 제시된 합격 가능성이 높다는 내용과 상충합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, 합격 가능성에 대한 해석이 다릅니다. 원문에서는 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 낮다고 평가하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다룬 주제와 관련이 깊으며, 신소재공학부의 성적과 합격 가능성에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 요인에 대한 설명이 명확하게 이어집니다. 그러나 합격 가능성에 대한 결론이 원문과 다르게 제시되어 약간의 일관성 문제가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 전반적으로 정확한 정보를 제공하고 있으나, 합격 가능성에 대한 해석이 원문과 다르게 나타나 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 응답은 여러 차원에서 좋은 품질을 보여주지만, 일관성과 정확성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원문과 의미적으로 잘 연결되어 있으나, 합격 가능성에 대한 해석이 다르게 나타나 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.6366911709991104</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.3등급의 수능 성적이 동의대학교에서 일반학생전형으로 산출되면 대략 4.1~4.2 정도의 점수가 나올 것으로 보입니다. 신소재공학부의 경우, 해당 학과의 모집인원과 지원자들의 경쟁률을 고려해야 합니다.
+신소재공학부는 일반적으로 중등이상의 수능 성적을 요구하며, 4.1~4.2 정도의 점수는 경쟁력 있는 수준입니다. 그러나 최종 합격 여부는 다음과 같은 요인들에 따라 결정됩니다:
+1. **모집인원**: 신소재공학부의 모집인원이 얼마나 되는지 확인해야 합니다.
+2. **경쟁률**: 해당 학과의 경쟁률을 파악해야 합니다. 경쟁률이 높다면, 4.1~4.2 정도의 점수로는 낮은 확률로 합격할 수 있습니다.
+3. **전형방법**: 동의대학교의 전형 방법과 기준을 확인해야 합니다. 일부 학과에서는 수능 성적 외에도 다른 요인들이 고려될 수 있습니다.
+따라서, 현재로서는 4.1~4.2 정도의 점수로 신소재공학부에 붙을 확률은 낮지만, 최종 결정은 동의대학교에서 발표하는 합격선과 경쟁률 등 여러 요인에 따라 달라질 수 있습니다.
+추가적으로, 동의대학교의 공식 홈페이지나 입학처와 연락하여 가장 정확한 정보를 얻는 것이 좋습니다. 또한, 다른 전형 방법(예: 학생부종합전형)을 고려해 볼 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적에 대한 주요 정보를 포함하고 있으며, 대부분의 사실이 정확하게 반영되어 있습니다. 그러나 "2024년"이라는 연도는 명시되어 있지만, 원본 텍스트에서 제공된 정보는 2024년의 성적이 아닌 2023년의 성적일 수 있습니다. 이로 인해 약간의 혼동이 있을 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일치합니다. 그러나 "2024년 최초합격자"라는 표현이 원본 텍스트의 연도와 일치하지 않을 수 있어 약간의 불일치가 발생합니다. 그 외의 정보는 일관되게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다. 모든 정보가 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장 간의 연결이 조금 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있습니다. 그러나 연도와 관련된 정보에서 약간의 혼동이 있을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 약간의 불일치와 혼동이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 연도와 관련된 부분에서 약간의 부적절함이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.7680120140785255</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능(일반학생전형) 최초합격자들의 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개 과목) 표준변환점수 합 평균: 415.80
+- 영어 등급 평균: 4.13
+- 수능 4개 영역 등급 평균: 4.98
+이 성적은 2024년 최초합격자들의 평균 성적을 나타내는 것이므로, 실제 입학을 위해서는 이보다 높은 점수를 받는 것이 유리할 것입니다.
+참고로 수능 등급은 다음과 같이 계산됩니다:
+- 1등급: 90점 이상
+- 2등급: 85점 이상
+- 3등급: 80점 이상
+- 4등급: 75점 이상
+- 5등급: 70점 이상
+- 6등급: 65점 이상
+따라서 영어 4.13 등급은 대략 79점 정도를 의미합니다.
+수능 점수와 등급 외에도, 동의대학교에서는 수험생들의 학력사항, 고교 성적 등 다양한 요소를 종합적으로 평가하기 때문에, 단순히 수능 점수만으로 입학을 보장받는 것은 아닙니다.
+추가적인 정보나 자세한 질문이 있으시다면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교의 정시 성적 기준에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 각 학과의 평균 성적과 표준 편차에 대한 구체적인 내용이 누락되어 있습니다. 또한, 응답에서 언급된 기준이 원본 텍스트의 내용과 일치하지 않거나 다소 모호하게 표현되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있으나, 특정 학과의 성적 기준에 대한 정보가 다르게 제시되어 있어 일관성이 떨어집니다. 예를 들어, 원본 텍스트에서 제시된 평균 성적과는 다른 수치가 사용되었습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교의 정시 성적과 관련된 정보를 제공하고 있으며, 질문에 대한 답변으로 적절한 내용을 포함하고 있습니다. 그러나 원본 텍스트의 구체적인 학과별 성적 정보가 누락되어 있어 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 완전한 일관성을 유지하지 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교했을 때 정확성이 떨어집니다. 특히, 각 학과의 평균 성적과 표준 편차에 대한 정보가 부정확하거나 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 원본 텍스트의 구체적인 세부사항이 누락되어 있어 완전한 적절성을 갖추지 못했습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.6397760066887684</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 국어, 수학, 영어, 탐구 등급을 기준으로 합격 가능 여부를 판단해보겠습니다.
+주요 정보:
+- 성적: 5.27 (수능 4개 영역 표준 변환 점수 합)
+- 모집단위: 일반학생전형
+일반적으로 동의대학교 정시 모집에서는 다음과 같은 기준을 따릅니다:
+1. 국어, 수학, 영어 등급 평균이 5.0 이상인 경우가 많습니다.
+2. 탐구 과목 중 2개를 선택하여 평균 등급도 고려합니다.
+주요 모집단위별 기준:
+- 인문사회과학대학: 국어 4.8, 수학 4.7, 영어 3.9
+- 상경대학: 국어 5.0, 수학 4.6, 영어 4.1
+- 공과대학: 국어 4.8, 수학 4.7, 영어 4.2
+주요 모집단위별 평균 등급:
+- 인문사회과학대학: 5.0 (국어), 4.9 (수학), 3.9 (영어)
+- 상경대학: 5.1 (국어), 4.6 (수학), 4.2 (영어)
+- 공과대학: 5.0 (국어), 4.7 (수학), 4.2 (영어)
+주요 모집단위별 탐구 과목 평균 등급:
+- 인문사회과학대학: 3.8
+- 상경대학: 3.9
+- 공과대학: 4.0
+5.27의 성적은 대부분의 일반학생전형 모집단위에서 경쟁력을 갖추고 있습니다. 특히, 탐구 과목 중 2개를 선택하여 평균 등급을 높일 수 있다면 더 좋습니다.
+하지만 정확한 합격 가능 여부는 최종 모집 결과와 지원자의 전체 성적 분포를 고려해야 합니다. 따라서:
+1. 해당 모집단위의 최종 모집 결과와 지원자들의 성적 분포를 확인해보세요.
+2. 탐구 과목 중 2개를 선택하여 평균 등급을 높일 수 있는지 확인하세요.
+결론적으로, 5.27의 성적은 대부분의 일반학생전형 모집단위에서 경쟁력을 갖추고 있으나, 최종 합격 가능 여부는 정확한 지원자들의 성적 분포와 모집 결과를 바탕으로 판단해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 관련된 정보를 제공하고 있으며, 4.2라는 점수가 높은 점수라는 점도 언급하고 있습니다. 그러나 소프트웨어공학부의 평균 등급에 대한 구체적인 수치가 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 정보와 일관되며, 4.2라는 점수가 소프트웨어공학부의 평균 등급보다 높은 성적이라는 점을 잘 반영하고 있습니다. 다만, 전형 유형에 대한 추가적인 설명이 포함되어 있어 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 소프트웨어공학부의 합격 가능성에 대한 여러 요소를 고려하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 몇 가지 항목이 나열된 형식으로 되어 있어 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 사실을 잘 반영하고 있으며, 4.2라는 점수에 대한 해석도 적절합니다. 그러나 소스 텍스트의 구체적인 수치가 누락되어 있어 완전한 정확성에는 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받고 있습니다. 그러나 일부 세부 사항에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 추가적인 정보가 포함되어 있어 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 문장에서 약간의 복잡함이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.4821835704842671</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 중등교육 기준으로 보면 상당히 높은 점수입니다. 그러나 정확한 가능성을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **전형 유형**: 소프웨어공학부의 경우, 일반적으로 학생부종합전형과 실기/실적 전형이 주로 시행됩니다. 성적이 높다면 학생부종합전형에서 좋은 평가를 받을 가능성이 있습니다.
+2. **학생부 성적**: 4.2라는 점수는 고교 졸업예정자 중 상위권에 속합니다. 이 점수만으로는 충분하지 않으며, 학생부의 전반적인 성적과 활동 경력도 중요합니다.
+3. **활동 및 특기사항**: 소프트웨어공학과와 관련된 활동이나 프로젝트 경험, 동아리 활동 등이 있다면 이는 큰 장점이 될 수 있습니다.
+4. **면접 성적**: 일부 학생부종합전형에서는 면접 점수도 고려됩니다. 좋은 면접 성적이 있으면 더 높은 평가를 받을 수 있습니다.
+5. **모집인원 및 경쟁률**: 각 모집단위의 모집인원과 경쟁률을 확인해야 합니다. 경쟁률이 높다면 4.2라는 점수만으로는 충분하지 않을 수도 있습니다.
+6. **대학별 정책**: 동의대학교의 학생부종합전형 평가 기준을 잘 이해하고 있어야 합니다. 일부 대학에서는 특정 과목이나 활동에 더 중점을 둘 수 있으므로, 이 점도 고려해야 합니다.
+결론적으로 4.2라는 성적은 좋은 기반이지만, 학생부의 전반적인 성적과 활동 경력이 중요합니다. 또한 동의대학교의 정확한 모집요강을 확인하고, 필요하다면 입학처에 문의하여 자세한 정보를 얻는 것이 좋습니다.
+추가적으로, 동의대학교의 공식 홈페이지나 입학처와 연락하여 더 구체적인 조언을 받으시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 화학환경공학부의 평균 등급과 관련된 정보를 제공하지 않고, 대신 일반적인 입학 기준에 대한 설명을 하고 있습니다. 이는 원본 텍스트의 구체적인 사실과 일치하지 않으며, 원본의 핵심 정보를 누락하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 동의대 화학환경공학부의 평균 등급에 대한 정보가 포함되어 있지 않습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대 화학환경공학부에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 구체적인 정보와는 관련이 적습니다. 일반적인 입학 기준에 대한 설명은 있지만, 질문의 핵심에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어, 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 논리적인 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 동의대 화학환경공학부의 평균 등급에 대한 정보가 누락되어 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 정보의 정확성, 일관성, 관련성 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 의미와 맥락에 적절하게 부합하지 않습니다. 일반적인 정보는 포함되어 있지만, 구체적인 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 한국어 사용자에게는 외국어로 작성되어 있어 이해하는 데 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.5722550776258493</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看几个关键信息：
+1. 同意大学（东义大学）的化学生物环境工程学部（化学、环境、应用化学）的具体录取标准。
+2. 您的成绩3.92在该专业的排名情况。
+根据提供的表格信息，我们可以看到以下内容：
+- 化学生物环境工程学部属于工科学院。
+- 该专业在2024年招生时的录取分数范围可能会有所不同，但通常会参考学生的综合成绩（包括高考成绩和学业水平测试）以及面试表现等。
+假设3.92是您的高考成绩中的数学、语文、英语和两门选考科目的平均分，并且您已经满足了该专业的其他要求（如学业水平测试成绩），那么理论上来说，这个分数是有机会被化学生物环境工程学部录取的。
+但是，具体能否录取还需要考虑以下几个因素：
+1. 您的具体科目组合是否符合该专业的招生要求。
+2. 该专业当年的实际录取分数线是多少。
+3. 学校是否有其他额外的要求或限制条件。
+建议您直接访问东义大学的官方网站（https://ipsi.deu.ac.kr/main.do）查看最新的招生简章和具体的专业录取标准，或者咨询学校的招生办公室以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보를 제공하고 있으며, 성적 4.25에 대한 합격 가능성을 언급하고 있습니다. 그러나, 원문에서 제공된 구체적인 평균 점수와 비교하는 내용이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 정보를 제공하지만, 화학환경공학부 대신 화학공학과에 대한 언급이 있어 일관성이 떨어집니다. 또한, 원문에서 제시된 평균 점수와의 비교가 부족하여 일관성이 약간 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 매우 관련이 깊습니다. 수능 일반학생전형에 대한 지원 가능성 및 성적 확인에 대한 정보를 제공하고 있어 주제와 잘 맞아떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나, 화학환경공학부와 화학공학과의 혼동으로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 화학환경공학부에 대한 구체적인 정보가 부족하여 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 내용을 담고 있습니다. 다만, 화학환경공학부와 화학공학과의 혼동이 의미적 적합성을 약간 저해할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.6349201598535459</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학과에 대해 수능 일반학생전형을 통해 지원할 수 있는지 확인해보겠습니다.
+1. **모집단위와 모집인원**: 먼저, 화학환경공학과가 어떤 모집단위에 속하는지 확인해야 합니다. 표에서 확인하면 화학공학과 - 교직 (공과대학 / 공학)라는 모집단위로 분류되어 있습니다.
+2. **수능 일반학생전형 지원 가능 여부**: 수능 일반학생전형은 주로 수능 점수를 기반으로 학생을 선발합니다. 동의대학교 화학환경공학과는 공과대학에 속하며, 해당 모집단위는 수능 일반학생전형을 통해 지원할 수 있습니다.
+3. **성적 확인**: 제공된 성적이 4.25입니다. 이 점수는 수능 표준점수로 보이므로, 이를 기반으로 지원 가능합니다. 하지만 정확한 지원 가능성은 모집단위의 최저 합격 점수와 비교해야 합니다.
+4. **최저합격선 확인**: 화학공학과 - 교직의 최저합격선을 확인해야 합니다. 이 정보는 동의대학교 입학 홈페이지나 공지사항에서 확인할 수 있습니다.
+5. **지원 가능 여부**: 현재 제공된 성적 4.25가 해당 모집단위의 최저 합격 점수를 충족하고 있다면, 지원이 가능합니다. 만약 최저합격선보다 낮다면, 지원이 불가능할 수 있습니다.
+**추천 사항:**
+- 동의대학교 입학 홈페이지나 공지사항을 확인하여 화학공학과 - 교직의 최저 합격 점수를 확인하세요.
+- 해당 모집단위의 최저합격선이 4.25 이상이라면, 지원 가능합니다.
+만약 추가 정보가 필요하거나 더 자세한 조언이 필요하다면, 동의대학교 입학처에 문의하시거나 공지사항을 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 영화학과의 입학 가능성에 대한 정보를 제공하지만, 수능 성적 4.2에 대한 구체적인 평가가 부족하고, 학생부종합전형에 대한 언급이 추가되어 있어 원본 텍스트의 정보와 다소 상충하는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 학생부종합전형에 대한 강조가 원본의 일반학생전형에 대한 정보와 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 영화학과 지원에 대한 질문에 관련된 정보를 제공하고 있으나, 학생부종합전형에 대한 정보가 추가되어 있어 원본 텍스트의 핵심 주제와는 약간의 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있으나, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 학생부종합전형에 대한 추가 정보가 원본 텍스트와의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적에 대한 평가가 다소 부정확하며, 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 영화학과 지원에 대한 질문에 잘 맞춰져 있습니다. 그러나 학생부종합전형에 대한 언급이 원본의 맥락과 다소 어긋납니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.6646122892232776</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 영화학과를 지원하셨다면, 학생부종합전형을 통해 입학할 가능성이 있습니다. 하지만 성적이 4.2정도라면, 수능성적만으로는 일반학생전형(수능)에서는 낮은 경쟁률을 기대하기 어렵습니다.
+영화학과의 경우 주로 학생부종합전형을 통해 지원자가 선발되므로, 다음과 같은 요소들을 고려해야 합니다:
+1. **학생부 성적**: 국어, 수학, 영어 등 주요 과목의 성적이 중요합니다.
+2. **진로선택과목 성적**: 이 과목들의 성적도 중요한 평가 기준입니다.
+3. **공동체역량**: 학교생활에서의 참여와 활동 경력이 반영됩니다.
+4. **학업역량**: 학업태도와 성취도가 중요합니다.
+5. **전공적합성**: 지원자의 전공에 대한 적합성을 평가합니다.
+만약 수능 성적이 4.2정도라면, 학생부종합전형을 통해 입학할 가능성이 더 높습니다. 학생부에서 좋은 성적과 진로와 관련된 활동 경력이 있다면, 합격 가능성은 있습니다.
+추가적으로, 동의대학교에서는 수능성적 외에도 다양한 요소를 종합적으로 평가하므로, 지원자의 전반적인 역량을 잘 보여줄 수 있는 자료들을 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 모든 단계가 올바르게 나열되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 서로 모순되는 내용이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 사실적인 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.6407487269541471</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>以下是面试流程的韩文翻译：
+면접 절차:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원 동기 및 학업 계획 발표
+6. 학업 역량, 전공 적합성 관련 공통 문항 발표 및 질의응답
+7. 기타 질의응답 (제출 서류 진위 여부 등)
+8. 퇴실
+面试流程如下：
+1. 到候考室报到
+2. 身份确认
+3. 移动至考场前
+4. 进入考场
+5. 发表个人的申请动机和学业计划
+6. 讨论学业能力、专业匹配相关的一般问题并进行问答
+7. 其他质询（提交文件的真实性等）
+8. 离场</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
